--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D43CC8-38FB-42B9-B54A-6B57763390B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11072BB-6618-4A70-929A-7AF351BF7237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1647,13 +1647,6 @@
     node[(@pt="n"  or (@pt="adj" and @positie="nom")) and @rel="hd"]]</t>
   </si>
   <si>
-    <t>//node[(((@cat="sv1" and not(parent::node[@cat="whq"])) or
-        (@cat="smain" )
-       ) and 
-  node[@pt="ww" and @rel="hd" and (not(@stype) or @stype!="imparative") ] and node[@rel="su" and number(@end)&gt;../node[@rel="hd"]/@end]) or 
-  %robustinversion%]</t>
-  </si>
-  <si>
     <t>//node[node[@pt="ww"  and @rel ="hd"] and node[@rel="pc" and not(%Tarsp_B%)]]</t>
   </si>
   <si>
@@ -1827,9 +1820,6 @@
     <t>//node[(@lemma="hij" or @lemma="ie")  and @pt="vnw"]</t>
   </si>
   <si>
-    <t>//node[@cat="whq" and node[@cat="sv1"] and count(node)=1]</t>
-  </si>
-  <si>
     <t>//node[(@pt="ww" and @rel="hd" and 
            (@lemma="hebben" or @lemma="worden" or @lemma="zijn") and
        parent::node[node[@rel="vc" and ((@cat="ppart" and node[@rel="hd"]) or (@pt="ww" and @wvorm="vd"))]
@@ -1923,6 +1913,20 @@
   </si>
   <si>
     <t>G_Zn</t>
+  </si>
+  <si>
+    <t>//node[%vrwondplus%]</t>
+  </si>
+  <si>
+    <t>//node[
+(
+ (
+  (@cat="sv1" and not(parent::node[@cat="whq"])) or
+  (@cat="smain" )
+ ) and 
+  node[@pt="ww" and @rel="hd" and (not(@stype) or @stype!="imparative") ] and node[@rel="su" and number(@end)&gt;../node[@rel="hd"]/@end]
+) or 
+%robustinversion%]</t>
   </si>
 </sst>
 </file>
@@ -2343,11 +2347,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="F141" sqref="F141"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2411,22 +2415,22 @@
         <v>448</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2446,13 +2450,13 @@
         <v>197</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>358</v>
@@ -2464,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>358</v>
@@ -2558,7 +2562,7 @@
         <v>449</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2622,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>358</v>
@@ -2651,7 +2655,7 @@
         <v>197</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>358</v>
@@ -2841,7 +2845,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>358</v>
@@ -2853,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>358</v>
@@ -3089,7 +3093,7 @@
         <v>396</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>358</v>
@@ -3101,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>358</v>
@@ -3232,7 +3236,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>358</v>
@@ -3244,7 +3248,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>358</v>
@@ -3276,7 +3280,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>358</v>
@@ -3288,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>358</v>
@@ -3504,7 +3508,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>358</v>
@@ -3656,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>358</v>
@@ -3761,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>358</v>
@@ -3790,7 +3794,7 @@
         <v>214</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>358</v>
@@ -3802,7 +3806,7 @@
         <v>368</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>358</v>
@@ -3831,7 +3835,7 @@
         <v>215</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>358</v>
@@ -3843,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>358</v>
@@ -3869,7 +3873,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>358</v>
@@ -3972,7 +3976,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>259</v>
       </c>
@@ -4001,7 +4005,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>519</v>
+        <v>599</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>358</v>
@@ -4106,7 +4110,7 @@
         <v>207</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>358</v>
@@ -4182,7 +4186,7 @@
         <v>359</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>359</v>
@@ -4480,7 +4484,7 @@
         <v>449</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
@@ -4506,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>359</v>
@@ -4535,7 +4539,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>358</v>
@@ -4547,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>358</v>
@@ -4576,7 +4580,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>358</v>
@@ -4588,7 +4592,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>358</v>
@@ -4638,7 +4642,7 @@
         <v>449</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -4819,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>358</v>
@@ -4848,7 +4852,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>358</v>
@@ -4860,7 +4864,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>358</v>
@@ -4889,7 +4893,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>358</v>
@@ -4901,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>358</v>
@@ -4930,7 +4934,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>358</v>
@@ -4971,7 +4975,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>358</v>
@@ -5012,7 +5016,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>358</v>
@@ -5024,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>358</v>
@@ -5053,7 +5057,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>358</v>
@@ -5065,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>358</v>
@@ -5094,10 +5098,10 @@
         <v>412</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>358</v>
@@ -5135,10 +5139,10 @@
         <v>192</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>358</v>
@@ -5150,7 +5154,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>358</v>
@@ -5200,7 +5204,7 @@
         <v>449</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5235,7 +5239,7 @@
         <v>449</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -5293,10 +5297,10 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>358</v>
@@ -5308,7 +5312,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>358</v>
@@ -5337,10 +5341,10 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>358</v>
@@ -5352,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>358</v>
@@ -5378,7 +5382,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>358</v>
@@ -5463,7 +5467,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>358</v>
@@ -5577,7 +5581,7 @@
         <v>449</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -5702,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>358</v>
@@ -5836,7 +5840,7 @@
         <v>358</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>359</v>
@@ -5877,7 +5881,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>358</v>
@@ -5906,7 +5910,7 @@
         <v>24</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>358</v>
@@ -5947,7 +5951,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>358</v>
@@ -5959,7 +5963,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>358</v>
@@ -6026,7 +6030,7 @@
         <v>458</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>358</v>
@@ -6070,7 +6074,7 @@
         <v>449</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6175,7 +6179,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>358</v>
@@ -6210,7 +6214,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>358</v>
@@ -6298,7 +6302,7 @@
         <v>461</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>170</v>
@@ -6362,7 +6366,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>358</v>
@@ -6403,7 +6407,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>358</v>
@@ -6444,7 +6448,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>358</v>
@@ -6530,7 +6534,7 @@
         <v>449</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -6556,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>358</v>
@@ -6592,7 +6596,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>358</v>
@@ -6653,7 +6657,7 @@
         <v>197</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>358</v>
@@ -6665,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>359</v>
@@ -6700,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>358</v>
@@ -6732,7 +6736,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>358</v>
@@ -6864,7 +6868,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>358</v>
@@ -6876,7 +6880,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>358</v>
@@ -7010,7 +7014,7 @@
         <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>358</v>
@@ -7022,7 +7026,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>358</v>
@@ -7051,7 +7055,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>358</v>
@@ -7063,7 +7067,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>358</v>
@@ -7095,7 +7099,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>358</v>
@@ -7107,7 +7111,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>358</v>
@@ -7177,7 +7181,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>358</v>
@@ -7238,7 +7242,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>358</v>
@@ -7250,7 +7254,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>358</v>
@@ -7279,7 +7283,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>358</v>
@@ -7291,7 +7295,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>358</v>
@@ -7323,7 +7327,7 @@
         <v>447</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>358</v>
@@ -7335,7 +7339,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>358</v>
@@ -7448,7 +7452,7 @@
         <v>209</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>358</v>
@@ -7612,7 +7616,7 @@
         <v>449</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -7629,7 +7633,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>358</v>
@@ -7641,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>358</v>
@@ -7906,7 +7910,7 @@
         <v>416</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>358</v>
@@ -8087,7 +8091,7 @@
         <v>450</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11072BB-6618-4A70-929A-7AF351BF7237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F608D15-6F7A-4381-BD6B-C0188FD7324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="601">
   <si>
     <t>Item</t>
   </si>
@@ -1927,6 +1927,9 @@
   node[@pt="ww" and @rel="hd" and (not(@stype) or @stype!="imparative") ] and node[@rel="su" and number(@end)&gt;../node[@rel="hd"]/@end]
 ) or 
 %robustinversion%]</t>
+  </si>
+  <si>
+    <t>//node[%Tarsp_vcw%]</t>
   </si>
 </sst>
 </file>
@@ -2347,11 +2350,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G88" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomRight" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5921,6 +5924,9 @@
       <c r="J94" s="2">
         <v>2</v>
       </c>
+      <c r="K94" s="2" t="s">
+        <v>600</v>
+      </c>
       <c r="L94" s="2" t="s">
         <v>358</v>
       </c>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F608D15-6F7A-4381-BD6B-C0188FD7324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7F3087-293C-42CB-9F2C-B725737045EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1595,13 +1595,6 @@
     <t>//node[%Tarsp_HwwZ%]</t>
   </si>
   <si>
-    <t>//node[@pt="ww" and @pvagr="met-t" and not(%Tarsp_hww% or
-     @lemma = "hebben" or
-     @lemma = "worden" or
-     @lemma = "zijn"   
-  ) ]</t>
-  </si>
-  <si>
     <t>//node[node[@rel="hd" and @pt="vz"] and 
        node[@rel="obj1" and 
             ( (@pt="vz" or @pt="bw") or 
@@ -1930,6 +1923,10 @@
   </si>
   <si>
     <t>//node[%Tarsp_vcw%]</t>
+  </si>
+  <si>
+    <t>//node[@pt="ww" and @pvagr="met-t" and 
+not(%Tarsp_hww% or %hebbenwordenzijn%  ) ]</t>
   </si>
 </sst>
 </file>
@@ -2350,11 +2347,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="H88" sqref="H88"/>
+      <selection pane="bottomRight" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2418,22 +2415,22 @@
         <v>448</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2453,13 +2450,13 @@
         <v>197</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>358</v>
@@ -2471,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>358</v>
@@ -2565,7 +2562,7 @@
         <v>449</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2629,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>358</v>
@@ -2658,7 +2655,7 @@
         <v>197</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>358</v>
@@ -2670,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>359</v>
@@ -2784,7 +2781,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>358</v>
@@ -2848,7 +2845,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>358</v>
@@ -2860,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>358</v>
@@ -2968,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>358</v>
@@ -3096,7 +3093,7 @@
         <v>396</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>358</v>
@@ -3108,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>358</v>
@@ -3239,7 +3236,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>358</v>
@@ -3251,7 +3248,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>358</v>
@@ -3283,7 +3280,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>358</v>
@@ -3295,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>358</v>
@@ -3307,7 +3304,7 @@
         <v>449</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -3365,7 +3362,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>358</v>
@@ -3511,7 +3508,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>358</v>
@@ -3663,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>358</v>
@@ -3768,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>358</v>
@@ -3797,7 +3794,7 @@
         <v>214</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>358</v>
@@ -3809,7 +3806,7 @@
         <v>368</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>358</v>
@@ -3838,7 +3835,7 @@
         <v>215</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>358</v>
@@ -3850,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>358</v>
@@ -3876,7 +3873,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>358</v>
@@ -4008,7 +4005,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>358</v>
@@ -4046,7 +4043,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>358</v>
@@ -4113,7 +4110,7 @@
         <v>207</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>358</v>
@@ -4189,7 +4186,7 @@
         <v>359</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>359</v>
@@ -4487,7 +4484,7 @@
         <v>449</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
@@ -4513,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>359</v>
@@ -4542,7 +4539,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>358</v>
@@ -4554,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>358</v>
@@ -4583,7 +4580,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>358</v>
@@ -4595,7 +4592,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>358</v>
@@ -4645,7 +4642,7 @@
         <v>449</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -4826,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>358</v>
@@ -4855,7 +4852,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>358</v>
@@ -4867,7 +4864,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>358</v>
@@ -4896,7 +4893,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>358</v>
@@ -4908,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>358</v>
@@ -4937,7 +4934,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>358</v>
@@ -4978,7 +4975,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>358</v>
@@ -5019,7 +5016,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>358</v>
@@ -5031,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>358</v>
@@ -5060,7 +5057,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>358</v>
@@ -5072,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>358</v>
@@ -5101,10 +5098,10 @@
         <v>412</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>358</v>
@@ -5142,10 +5139,10 @@
         <v>192</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>358</v>
@@ -5157,7 +5154,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>358</v>
@@ -5207,7 +5204,7 @@
         <v>449</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5242,7 +5239,7 @@
         <v>449</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -5300,10 +5297,10 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>358</v>
@@ -5315,7 +5312,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>358</v>
@@ -5344,10 +5341,10 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>358</v>
@@ -5359,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>358</v>
@@ -5385,7 +5382,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>358</v>
@@ -5470,7 +5467,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>358</v>
@@ -5482,7 +5479,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>298</v>
       </c>
@@ -5508,7 +5505,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>507</v>
+        <v>600</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>358</v>
@@ -5584,7 +5581,7 @@
         <v>449</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -5697,7 +5694,7 @@
         <v>388</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>358</v>
@@ -5709,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>358</v>
@@ -5805,7 +5802,7 @@
         <v>389</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>358</v>
@@ -5843,7 +5840,7 @@
         <v>358</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>359</v>
@@ -5884,7 +5881,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>358</v>
@@ -5913,7 +5910,7 @@
         <v>24</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>358</v>
@@ -5925,7 +5922,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>358</v>
@@ -5957,7 +5954,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>358</v>
@@ -5969,7 +5966,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>358</v>
@@ -6036,7 +6033,7 @@
         <v>458</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>358</v>
@@ -6080,7 +6077,7 @@
         <v>449</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6185,7 +6182,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>358</v>
@@ -6220,7 +6217,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>358</v>
@@ -6308,7 +6305,7 @@
         <v>461</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>170</v>
@@ -6372,7 +6369,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>358</v>
@@ -6413,7 +6410,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>358</v>
@@ -6454,7 +6451,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>358</v>
@@ -6495,7 +6492,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>358</v>
@@ -6540,7 +6537,7 @@
         <v>449</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -6566,7 +6563,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>358</v>
@@ -6602,7 +6599,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>358</v>
@@ -6663,7 +6660,7 @@
         <v>197</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>358</v>
@@ -6675,7 +6672,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>359</v>
@@ -6710,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>358</v>
@@ -6742,7 +6739,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>358</v>
@@ -6874,7 +6871,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>358</v>
@@ -6886,7 +6883,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>358</v>
@@ -7020,7 +7017,7 @@
         <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>358</v>
@@ -7032,7 +7029,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>358</v>
@@ -7061,7 +7058,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>358</v>
@@ -7073,7 +7070,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>358</v>
@@ -7105,7 +7102,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>358</v>
@@ -7117,7 +7114,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>358</v>
@@ -7187,7 +7184,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>358</v>
@@ -7248,7 +7245,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>358</v>
@@ -7260,7 +7257,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>358</v>
@@ -7289,7 +7286,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>358</v>
@@ -7301,7 +7298,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>358</v>
@@ -7333,7 +7330,7 @@
         <v>447</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>358</v>
@@ -7345,7 +7342,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>358</v>
@@ -7417,7 +7414,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>358</v>
@@ -7458,7 +7455,7 @@
         <v>209</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>358</v>
@@ -7499,7 +7496,7 @@
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>358</v>
@@ -7622,7 +7619,7 @@
         <v>449</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -7639,7 +7636,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>358</v>
@@ -7651,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>358</v>
@@ -7712,7 +7709,7 @@
         <v>198</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>358</v>
@@ -7916,7 +7913,7 @@
         <v>416</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>358</v>
@@ -8097,7 +8094,7 @@
         <v>450</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7F3087-293C-42CB-9F2C-B725737045EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD24FE2D-9D69-4E2E-A7D3-6235B636F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1911,22 +1911,15 @@
     <t>//node[%vrwondplus%]</t>
   </si>
   <si>
-    <t>//node[
-(
- (
-  (@cat="sv1" and not(parent::node[@cat="whq"])) or
-  (@cat="smain" )
- ) and 
-  node[@pt="ww" and @rel="hd" and (not(@stype) or @stype!="imparative") ] and node[@rel="su" and number(@end)&gt;../node[@rel="hd"]/@end]
-) or 
-%robustinversion%]</t>
-  </si>
-  <si>
     <t>//node[%Tarsp_vcw%]</t>
   </si>
   <si>
     <t>//node[@pt="ww" and @pvagr="met-t" and 
 not(%Tarsp_hww% or %hebbenwordenzijn%  ) ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//node[%inv%]
+</t>
   </si>
 </sst>
 </file>
@@ -2347,11 +2340,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3976,7 +3969,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>259</v>
       </c>
@@ -4005,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>358</v>
@@ -5505,7 +5498,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>358</v>
@@ -5922,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>358</v>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD24FE2D-9D69-4E2E-A7D3-6235B636F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471DC713-947D-4F6C-95F9-29E005A746E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="602">
   <si>
     <t>Item</t>
   </si>
@@ -1724,16 +1724,6 @@
          (@rel="--" or @rel="sat" or @rel="tag"))  		 
 		 ) )	or  %Tarsp_kijkVU%	 or %Tarsp_hehe%
 ]</t>
-  </si>
-  <si>
-    <t>//node[@pt="ww" and @pvtijd="tgw" and
-        not(%Tarsp_kijkVU%) and
- not(%Tarsp_hww% or
-     @lemma = "hebben" or
-     @lemma = "worden" or
-     @lemma = "zijn"   
-  )
-and @pvagr="ev"  ]</t>
   </si>
   <si>
     <t>//node[((@rel="vc" or @rel="su") and (@cat="cp" or @cat="whsub")) or %directerede_vcbijzin%]</t>
@@ -1914,12 +1904,26 @@
     <t>//node[%Tarsp_vcw%]</t>
   </si>
   <si>
-    <t>//node[@pt="ww" and @pvagr="met-t" and 
-not(%Tarsp_hww% or %hebbenwordenzijn%  ) ]</t>
-  </si>
-  <si>
     <t xml:space="preserve">//node[%inv%]
 </t>
+  </si>
+  <si>
+    <t>//node[@pt="ww" and @pvtijd="tgw" and
+        not(%Tarsp_kijkVU%) and not(%Tarsp_Kop%) and
+ not(%Tarsp_hww% or
+     @lemma = "hebben" or
+     @lemma = "worden" or
+     @lemma = "zijn"   
+  )
+and not(parent::node[%basicimperative%])
+and @pvagr="ev"  ]</t>
+  </si>
+  <si>
+    <t>//node[@pt="ww" and @pvagr="met-t" and not(%Tarsp_Kop%) and
+not(%Tarsp_hww% or %hebbenwordenzijn%  ) ]</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
 </sst>
 </file>
@@ -2340,11 +2344,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G48" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomRight" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2408,22 +2412,22 @@
         <v>448</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2443,13 +2447,13 @@
         <v>197</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>358</v>
@@ -2461,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>358</v>
@@ -2555,7 +2559,7 @@
         <v>449</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2619,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>358</v>
@@ -2648,7 +2652,7 @@
         <v>197</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>358</v>
@@ -2838,7 +2842,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>358</v>
@@ -3086,7 +3090,7 @@
         <v>396</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>358</v>
@@ -3098,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>358</v>
@@ -3229,7 +3233,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>358</v>
@@ -3273,7 +3277,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>358</v>
@@ -3285,7 +3289,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>358</v>
@@ -3501,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>358</v>
@@ -3653,7 +3657,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>358</v>
@@ -3758,7 +3762,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>358</v>
@@ -3787,7 +3791,7 @@
         <v>214</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>358</v>
@@ -3828,7 +3832,7 @@
         <v>215</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>358</v>
@@ -3840,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>358</v>
@@ -3866,7 +3870,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>358</v>
@@ -3998,7 +4002,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>358</v>
@@ -4103,7 +4107,7 @@
         <v>207</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>358</v>
@@ -4477,7 +4481,7 @@
         <v>449</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
@@ -4503,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>359</v>
@@ -4532,7 +4536,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>358</v>
@@ -4544,7 +4548,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>358</v>
@@ -4573,7 +4577,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>358</v>
@@ -4585,7 +4589,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>358</v>
@@ -4635,7 +4639,7 @@
         <v>449</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -4816,7 +4820,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>358</v>
@@ -4845,7 +4849,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>358</v>
@@ -4857,7 +4861,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>358</v>
@@ -4886,7 +4890,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>358</v>
@@ -4898,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>358</v>
@@ -4927,7 +4931,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>358</v>
@@ -4968,7 +4972,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>358</v>
@@ -5009,7 +5013,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>358</v>
@@ -5050,7 +5054,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>358</v>
@@ -5091,10 +5095,10 @@
         <v>412</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>358</v>
@@ -5132,10 +5136,10 @@
         <v>192</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>358</v>
@@ -5197,7 +5201,7 @@
         <v>449</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5232,7 +5236,7 @@
         <v>449</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -5290,10 +5294,10 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>358</v>
@@ -5334,10 +5338,10 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>358</v>
@@ -5375,7 +5379,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>358</v>
@@ -5437,7 +5441,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>297</v>
       </c>
@@ -5451,7 +5455,7 @@
         <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>358</v>
+        <v>601</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5460,7 +5464,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>358</v>
@@ -5472,7 +5476,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>298</v>
       </c>
@@ -5498,7 +5502,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>358</v>
@@ -5574,7 +5578,7 @@
         <v>449</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -5874,7 +5878,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>358</v>
@@ -5903,7 +5907,7 @@
         <v>24</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>358</v>
@@ -5915,7 +5919,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>358</v>
@@ -5947,7 +5951,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>358</v>
@@ -6070,7 +6074,7 @@
         <v>449</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6175,7 +6179,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>358</v>
@@ -6210,7 +6214,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>358</v>
@@ -6298,7 +6302,7 @@
         <v>461</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>170</v>
@@ -6530,7 +6534,7 @@
         <v>449</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -6556,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>358</v>
@@ -6592,7 +6596,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>358</v>
@@ -6653,7 +6657,7 @@
         <v>197</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>358</v>
@@ -6700,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>358</v>
@@ -6732,7 +6736,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>358</v>
@@ -6864,7 +6868,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>358</v>
@@ -7010,7 +7014,7 @@
         <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>358</v>
@@ -7051,7 +7055,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>358</v>
@@ -7095,7 +7099,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>358</v>
@@ -7238,7 +7242,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>358</v>
@@ -7279,7 +7283,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>358</v>
@@ -7323,7 +7327,7 @@
         <v>447</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>358</v>
@@ -7448,7 +7452,7 @@
         <v>209</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>358</v>
@@ -7612,7 +7616,7 @@
         <v>449</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -7629,7 +7633,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>358</v>
@@ -7641,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>358</v>
@@ -7906,7 +7910,7 @@
         <v>416</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>358</v>
@@ -8087,7 +8091,7 @@
         <v>450</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471DC713-947D-4F6C-95F9-29E005A746E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6EF375-B83B-479A-9658-CE1CA1DEAFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,9 +534,6 @@
     <t>Vr</t>
   </si>
   <si>
-    <t>//node[@pt="n" and @graad="dim"]</t>
-  </si>
-  <si>
     <t>speciale module</t>
   </si>
   <si>
@@ -1181,9 +1178,6 @@
   </si>
   <si>
     <t>//node[@cat="np" and node[@pt="n" and @rel="hd"] and node[@pt="vnw" and @vwtype="aanw" and @rel="det" and (@lemma="dit" or @lemma="dat")] and count(node)=2]</t>
-  </si>
-  <si>
-    <t>//node[node[@lemma="een" and @pt="lid"] and node[@pt="n" and @rel="hd"] and count(node)=2 ]</t>
   </si>
   <si>
     <t>removed @pt=vwn because that only occurs as 'ene' or in een en ander.</t>
@@ -1754,17 +1748,6 @@
   </si>
   <si>
     <t>//node[%Tarsp_OndWB%]</t>
-  </si>
-  <si>
-    <t>//node[(@cat="top" and not(.//node[%pv%]) and not(.//node[@lemma="niet"]) and not(.//node[@rel="dlink"]) and
-       (
-       (count(.//node[@cat="du" and count(node[%realnode%])=2  and node[%singlewordbw%] and node[(@pt or %corephrase%) ]])=1 ) or
-	   (node[%bxnp1%]) or
-	   (node[@cat="du" and count(node[%realnode%])=1 and node[%bxnp1%]]) or
-	   (node[%bxnp2%]) or
-	   (node[@cat="du" and count(node[%realnode%])=1 and node[%bxnp2%]])
-       )) or %Tarsp_bnonfin%
-	  ]</t>
   </si>
   <si>
     <t>//node[%Tarsp_VzN%]</t>
@@ -1924,6 +1907,15 @@
   </si>
   <si>
     <t>99</t>
+  </si>
+  <si>
+    <t>//node[node[(@lemma="een" or @lemma="'n") and @pt="lid"] and node[@pt="n" and @rel="hd"] and count(node)=2 ]</t>
+  </si>
+  <si>
+    <t>//node[%Tarsp_BX%]</t>
+  </si>
+  <si>
+    <t>//node[@pt="n" and @graad="dim" and not(%nodimlemma%)]</t>
   </si>
 </sst>
 </file>
@@ -2344,11 +2336,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="H81" sqref="H81"/>
+      <selection pane="bottomRight" activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2370,7 +2362,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -2379,19 +2371,19 @@
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -2403,31 +2395,31 @@
         <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2435,7 +2427,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -2444,19 +2436,19 @@
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I2" s="2">
         <v>60</v>
@@ -2465,24 +2457,24 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -2491,13 +2483,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I3" s="2">
         <v>56</v>
@@ -2506,24 +2498,24 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -2532,16 +2524,16 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>64</v>
@@ -2550,33 +2542,33 @@
         <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>122</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I5" s="2">
         <v>77</v>
@@ -2585,36 +2577,36 @@
         <v>6</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I6" s="2">
         <v>79</v>
@@ -2623,39 +2615,39 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I7" s="2">
         <v>42</v>
@@ -2664,21 +2656,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>83</v>
@@ -2687,13 +2679,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I8" s="2">
         <v>70</v>
@@ -2702,21 +2694,21 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -2725,13 +2717,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I9" s="2">
         <v>57</v>
@@ -2740,36 +2732,36 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I10" s="2">
         <v>67</v>
@@ -2778,21 +2770,21 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>83</v>
@@ -2801,13 +2793,13 @@
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>99</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I11" s="2">
         <v>70</v>
@@ -2816,18 +2808,18 @@
         <v>4</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -2836,16 +2828,16 @@
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I12" s="2">
         <v>50</v>
@@ -2854,33 +2846,33 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I13" s="2">
         <v>71</v>
@@ -2889,21 +2881,21 @@
         <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>83</v>
@@ -2912,13 +2904,13 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I14" s="2">
         <v>70</v>
@@ -2927,33 +2919,33 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I15" s="2">
         <v>68</v>
@@ -2962,62 +2954,62 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I17" s="2">
         <v>75</v>
@@ -3026,18 +3018,18 @@
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -3046,16 +3038,16 @@
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>50</v>
@@ -3064,36 +3056,36 @@
         <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I19" s="2">
         <v>40</v>
@@ -3102,33 +3094,33 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>154</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>156</v>
@@ -3137,30 +3129,30 @@
         <v>6</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I21" s="2">
         <v>69</v>
@@ -3169,33 +3161,33 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I22" s="2">
         <v>66</v>
@@ -3204,21 +3196,21 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
@@ -3227,16 +3219,16 @@
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I23" s="2">
         <v>53</v>
@@ -3245,21 +3237,21 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -3268,19 +3260,19 @@
         <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>27</v>
@@ -3289,36 +3281,36 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>553</v>
+        <v>600</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>18</v>
@@ -3327,30 +3319,30 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I26" s="2">
         <v>66</v>
@@ -3359,36 +3351,36 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I27" s="2">
         <v>68</v>
@@ -3397,33 +3389,33 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I28" s="2">
         <v>71</v>
@@ -3432,33 +3424,33 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I29" s="2">
         <v>64</v>
@@ -3467,36 +3459,36 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>376</v>
+        <v>599</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I30" s="2">
         <v>77</v>
@@ -3505,36 +3497,36 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>136</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I31" s="2">
         <v>81</v>
@@ -3543,36 +3535,36 @@
         <v>6</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I32" s="2">
         <v>72</v>
@@ -3581,21 +3573,21 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>19</v>
@@ -3604,16 +3596,16 @@
         <v>66</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>69</v>
@@ -3625,30 +3617,30 @@
         <v>162</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>138</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I34" s="2">
         <v>82</v>
@@ -3657,33 +3649,33 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>131</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I35" s="2">
         <v>80</v>
@@ -3692,33 +3684,33 @@
         <v>4</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I36" s="2">
         <v>71</v>
@@ -3727,33 +3719,33 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I37" s="2">
         <v>80</v>
@@ -3762,80 +3754,80 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I38" s="2">
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I39" s="2">
         <v>69</v>
@@ -3844,36 +3836,36 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>146</v>
@@ -3882,36 +3874,36 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>127</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I41" s="2">
         <v>79</v>
@@ -3920,21 +3912,21 @@
         <v>3</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -3943,16 +3935,16 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I42" s="2">
         <v>59</v>
@@ -3961,13 +3953,13 @@
         <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>161</v>
@@ -3975,7 +3967,7 @@
     </row>
     <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>19</v>
@@ -3984,16 +3976,16 @@
         <v>20</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
@@ -4002,36 +3994,36 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>128</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I44" s="2">
         <v>79</v>
@@ -4040,33 +4032,33 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I45" s="2">
         <v>82</v>
@@ -4075,21 +4067,21 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>19</v>
@@ -4098,19 +4090,19 @@
         <v>20</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>29</v>
@@ -4119,33 +4111,33 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I47" s="2">
         <v>77</v>
@@ -4154,53 +4146,53 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>19</v>
@@ -4209,13 +4201,13 @@
         <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>22</v>
@@ -4224,30 +4216,30 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I50" s="2">
         <v>81</v>
@@ -4256,33 +4248,33 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>152</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I51" s="2">
         <v>87</v>
@@ -4291,36 +4283,36 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>144</v>
@@ -4329,33 +4321,33 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I53" s="2">
         <v>73</v>
@@ -4364,21 +4356,21 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -4387,13 +4379,13 @@
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I54" s="2">
         <v>56</v>
@@ -4402,21 +4394,21 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>19</v>
@@ -4425,13 +4417,13 @@
         <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I55" s="2">
         <v>54</v>
@@ -4440,30 +4432,30 @@
         <v>6</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I56" s="2">
         <v>74</v>
@@ -4472,33 +4464,33 @@
         <v>7</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I57" s="2">
         <v>41</v>
@@ -4507,21 +4499,21 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>19</v>
@@ -4530,16 +4522,16 @@
         <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I58" s="2">
         <v>45</v>
@@ -4548,21 +4540,21 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>19</v>
@@ -4571,16 +4563,16 @@
         <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I59" s="2">
         <v>51</v>
@@ -4589,21 +4581,21 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -4612,16 +4604,16 @@
         <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I60" s="2">
         <v>58</v>
@@ -4630,21 +4622,21 @@
         <v>7</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>19</v>
@@ -4653,13 +4645,13 @@
         <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>57</v>
@@ -4668,21 +4660,21 @@
         <v>6</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>19</v>
@@ -4691,13 +4683,13 @@
         <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I62" s="2">
         <v>55</v>
@@ -4706,21 +4698,21 @@
         <v>6</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>19</v>
@@ -4729,13 +4721,13 @@
         <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>53</v>
@@ -4744,33 +4736,33 @@
         <v>6</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I64" s="2">
         <v>75</v>
@@ -4779,21 +4771,21 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>19</v>
@@ -4802,16 +4794,16 @@
         <v>20</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I65" s="2">
         <v>46</v>
@@ -4820,21 +4812,21 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -4843,16 +4835,16 @@
         <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I66" s="2">
         <v>46</v>
@@ -4861,21 +4853,21 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>19</v>
@@ -4884,16 +4876,16 @@
         <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I67" s="2">
         <v>49</v>
@@ -4902,21 +4894,21 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>19</v>
@@ -4925,16 +4917,16 @@
         <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I68" s="2">
         <v>52</v>
@@ -4943,21 +4935,21 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>19</v>
@@ -4966,16 +4958,16 @@
         <v>20</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I69" s="2">
         <v>52</v>
@@ -4984,21 +4976,21 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>19</v>
@@ -5007,16 +4999,16 @@
         <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I70" s="2">
         <v>48</v>
@@ -5025,21 +5017,21 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>19</v>
@@ -5048,16 +5040,16 @@
         <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I71" s="2">
         <v>53</v>
@@ -5066,21 +5058,21 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -5089,19 +5081,19 @@
         <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I72" s="2">
         <v>48</v>
@@ -5110,18 +5102,18 @@
         <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>19</v>
@@ -5130,19 +5122,19 @@
         <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I73" s="2">
         <v>51</v>
@@ -5151,21 +5143,21 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>19</v>
@@ -5174,16 +5166,16 @@
         <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I74" s="2">
         <v>58</v>
@@ -5192,33 +5184,33 @@
         <v>7</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I75" s="2">
         <v>74</v>
@@ -5227,36 +5219,36 @@
         <v>7</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I76" s="2">
         <v>78</v>
@@ -5265,21 +5257,21 @@
         <v>6</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>19</v>
@@ -5288,19 +5280,19 @@
         <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I77" s="2">
         <v>52</v>
@@ -5309,21 +5301,21 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>19</v>
@@ -5332,19 +5324,19 @@
         <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I78" s="2">
         <v>53</v>
@@ -5353,36 +5345,36 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I79" s="2">
         <v>82</v>
@@ -5391,33 +5383,33 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>151</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I80" s="2">
         <v>86</v>
@@ -5426,36 +5418,36 @@
         <v>4</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5464,36 +5456,36 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I82" s="2">
         <v>86</v>
@@ -5502,47 +5494,47 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="L83" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>19</v>
@@ -5551,13 +5543,13 @@
         <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I84" s="2">
         <v>57</v>
@@ -5566,36 +5558,36 @@
         <v>7</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I85" s="2">
         <v>42</v>
@@ -5604,30 +5596,30 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>15</v>
@@ -5636,30 +5628,30 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I87" s="2">
         <v>43</v>
@@ -5668,33 +5660,33 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="216" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I88" s="2">
         <v>37</v>
@@ -5703,33 +5695,33 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>3</v>
@@ -5738,36 +5730,36 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>4</v>
@@ -5776,82 +5768,82 @@
         <v>1</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="J91" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>160</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>19</v>
@@ -5860,16 +5852,16 @@
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>61</v>
@@ -5878,21 +5870,21 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>19</v>
@@ -5901,16 +5893,16 @@
         <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I94" s="2">
         <v>46</v>
@@ -5919,16 +5911,16 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>159</v>
@@ -5936,7 +5928,7 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>19</v>
@@ -5945,16 +5937,16 @@
         <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I95" s="2">
         <v>52</v>
@@ -5963,33 +5955,33 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I96" s="2">
         <v>75</v>
@@ -5998,65 +5990,65 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>155</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I98" s="2">
         <v>88</v>
@@ -6065,36 +6057,36 @@
         <v>7</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I99" s="2">
         <v>83</v>
@@ -6103,39 +6095,39 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>165</v>
+        <v>601</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I100" s="2">
         <v>87</v>
@@ -6144,33 +6136,33 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>102</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I101" s="2">
         <v>71</v>
@@ -6179,33 +6171,33 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I102" s="2">
         <v>80</v>
@@ -6214,36 +6206,36 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>148</v>
@@ -6252,36 +6244,36 @@
         <v>3</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I104" s="2">
         <v>88</v>
@@ -6290,56 +6282,56 @@
         <v>7</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="U104" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>164</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K105" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="U105" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="U105" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>19</v>
@@ -6348,16 +6340,16 @@
         <v>66</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I106" s="2">
         <v>60</v>
@@ -6366,16 +6358,16 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U106" s="2" t="s">
         <v>163</v>
@@ -6383,7 +6375,7 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>19</v>
@@ -6392,13 +6384,13 @@
         <v>66</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I107" s="2">
         <v>61</v>
@@ -6407,24 +6399,24 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>19</v>
@@ -6433,13 +6425,13 @@
         <v>66</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>77</v>
@@ -6448,19 +6440,19 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="U108" s="2" t="s">
         <v>163</v>
@@ -6468,19 +6460,19 @@
     </row>
     <row r="109" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I109" s="2">
         <v>72</v>
@@ -6489,33 +6481,33 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I110" s="2">
         <v>74</v>
@@ -6525,33 +6517,33 @@
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>90</v>
@@ -6560,34 +6552,34 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I112" s="2">
         <v>65</v>
@@ -6596,24 +6588,24 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>83</v>
@@ -6622,13 +6614,13 @@
         <v>30</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I113" s="2">
         <v>70</v>
@@ -6637,30 +6629,30 @@
         <v>4</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>8</v>
@@ -6669,33 +6661,33 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>12</v>
@@ -6704,24 +6696,24 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>19</v>
@@ -6730,16 +6722,16 @@
         <v>78</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I116" s="2">
         <v>62</v>
@@ -6748,86 +6740,86 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>123</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>124</v>
@@ -6836,24 +6828,24 @@
         <v>6</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U119" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>19</v>
@@ -6862,16 +6854,16 @@
         <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I120" s="2">
         <v>51</v>
@@ -6880,33 +6872,33 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I121" s="2">
         <v>68</v>
@@ -6915,33 +6907,33 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I122" s="2">
         <v>75</v>
@@ -6950,33 +6942,33 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>134</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I123" s="2">
         <v>81</v>
@@ -6985,21 +6977,21 @@
         <v>5</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>19</v>
@@ -7008,16 +7000,16 @@
         <v>66</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I124" s="2">
         <v>60</v>
@@ -7026,21 +7018,21 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>19</v>
@@ -7049,16 +7041,16 @@
         <v>66</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I125" s="2">
         <v>61</v>
@@ -7067,24 +7059,24 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>19</v>
@@ -7093,16 +7085,16 @@
         <v>66</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I126" s="2">
         <v>61</v>
@@ -7111,68 +7103,68 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E127" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="U127" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="U127" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>109</v>
@@ -7181,33 +7173,33 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I129" s="2">
         <v>73</v>
@@ -7216,18 +7208,18 @@
         <v>6</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>19</v>
@@ -7236,16 +7228,16 @@
         <v>78</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I130" s="2">
         <v>63</v>
@@ -7254,21 +7246,21 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>19</v>
@@ -7277,16 +7269,16 @@
         <v>78</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I131" s="2">
         <v>63</v>
@@ -7295,21 +7287,21 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>19</v>
@@ -7318,19 +7310,19 @@
         <v>78</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I132" s="2">
         <v>63</v>
@@ -7339,40 +7331,40 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I133" s="2">
         <v>72</v>
@@ -7381,21 +7373,21 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>19</v>
@@ -7404,17 +7396,17 @@
         <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>34</v>
@@ -7423,18 +7415,18 @@
         <v>3</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>19</v>
@@ -7443,19 +7435,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>37</v>
@@ -7464,21 +7456,21 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>19</v>
@@ -7487,16 +7479,16 @@
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I136" s="2">
         <v>51</v>
@@ -7505,30 +7497,30 @@
         <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>133</v>
@@ -7537,21 +7529,21 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>125</v>
@@ -7560,42 +7552,42 @@
         <v>30</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I139" s="2">
         <v>82</v>
@@ -7604,39 +7596,39 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I140" s="2">
         <v>40</v>
@@ -7645,33 +7637,33 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I141" s="2">
         <v>69</v>
@@ -7680,473 +7672,473 @@
         <v>4</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U141" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I142" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="U142" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="U142" s="12" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="U143" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E144" s="2" t="s">
+      <c r="H144" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="U144" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="U144" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I145" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="K145" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="U145" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I146" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="J146" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="U146" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="L148" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K149" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>453</v>
-      </c>
       <c r="L149" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="U149" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6EF375-B83B-479A-9658-CE1CA1DEAFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BD753A-5D71-43B2-87FF-0EF641C6A7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="603">
   <si>
     <t>Item</t>
   </si>
@@ -547,9 +547,6 @@
   </si>
   <si>
     <t>need special things</t>
-  </si>
-  <si>
-    <t>//node[@pt="ww" and @pvagr="mv" and @pvtijd="tgw" ]</t>
   </si>
   <si>
     <t>//node[@lemma="wij" or @lemma="we" ]</t>
@@ -1916,6 +1913,12 @@
   </si>
   <si>
     <t>//node[@pt="n" and @graad="dim" and not(%nodimlemma%)]</t>
+  </si>
+  <si>
+    <t>WVC</t>
+  </si>
+  <si>
+    <t>//node[%MvTT% ]</t>
   </si>
 </sst>
 </file>
@@ -2336,11 +2339,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K100" sqref="K100"/>
+      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2362,7 +2365,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -2371,19 +2374,19 @@
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -2395,31 +2398,31 @@
         <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2427,7 +2430,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -2436,19 +2439,19 @@
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I2" s="2">
         <v>60</v>
@@ -2457,24 +2460,24 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -2483,13 +2486,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I3" s="2">
         <v>56</v>
@@ -2498,24 +2501,24 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -2524,16 +2527,16 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>64</v>
@@ -2542,33 +2545,33 @@
         <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>122</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I5" s="2">
         <v>77</v>
@@ -2577,36 +2580,36 @@
         <v>6</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I6" s="2">
         <v>79</v>
@@ -2615,39 +2618,39 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I7" s="2">
         <v>42</v>
@@ -2656,21 +2659,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>83</v>
@@ -2679,13 +2682,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I8" s="2">
         <v>70</v>
@@ -2694,21 +2697,21 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -2717,13 +2720,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I9" s="2">
         <v>57</v>
@@ -2732,36 +2735,36 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I10" s="2">
         <v>67</v>
@@ -2770,21 +2773,21 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>83</v>
@@ -2793,13 +2796,13 @@
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>99</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I11" s="2">
         <v>70</v>
@@ -2808,18 +2811,18 @@
         <v>4</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -2828,16 +2831,16 @@
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I12" s="2">
         <v>50</v>
@@ -2846,33 +2849,33 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I13" s="2">
         <v>71</v>
@@ -2881,21 +2884,21 @@
         <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>83</v>
@@ -2904,13 +2907,13 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I14" s="2">
         <v>70</v>
@@ -2919,33 +2922,33 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I15" s="2">
         <v>68</v>
@@ -2954,62 +2957,62 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I17" s="2">
         <v>75</v>
@@ -3018,18 +3021,18 @@
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -3038,16 +3041,16 @@
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>50</v>
@@ -3056,36 +3059,36 @@
         <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I19" s="2">
         <v>40</v>
@@ -3094,33 +3097,33 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>154</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>156</v>
@@ -3129,30 +3132,30 @@
         <v>6</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I21" s="2">
         <v>69</v>
@@ -3161,33 +3164,33 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I22" s="2">
         <v>66</v>
@@ -3196,21 +3199,21 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
@@ -3219,16 +3222,16 @@
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I23" s="2">
         <v>53</v>
@@ -3237,21 +3240,21 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -3260,19 +3263,19 @@
         <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>27</v>
@@ -3281,36 +3284,36 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>18</v>
@@ -3319,30 +3322,30 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I26" s="2">
         <v>66</v>
@@ -3351,36 +3354,36 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I27" s="2">
         <v>68</v>
@@ -3389,33 +3392,33 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I28" s="2">
         <v>71</v>
@@ -3424,33 +3427,33 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I29" s="2">
         <v>64</v>
@@ -3459,36 +3462,36 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I30" s="2">
         <v>77</v>
@@ -3497,36 +3500,36 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>136</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I31" s="2">
         <v>81</v>
@@ -3535,36 +3538,36 @@
         <v>6</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I32" s="2">
         <v>72</v>
@@ -3573,21 +3576,21 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>19</v>
@@ -3596,16 +3599,16 @@
         <v>66</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>69</v>
@@ -3617,30 +3620,30 @@
         <v>162</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>138</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I34" s="2">
         <v>82</v>
@@ -3649,33 +3652,33 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>131</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I35" s="2">
         <v>80</v>
@@ -3684,33 +3687,33 @@
         <v>4</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I36" s="2">
         <v>71</v>
@@ -3719,33 +3722,33 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I37" s="2">
         <v>80</v>
@@ -3754,80 +3757,80 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I38" s="2">
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I39" s="2">
         <v>69</v>
@@ -3836,36 +3839,36 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>146</v>
@@ -3874,36 +3877,36 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>127</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I41" s="2">
         <v>79</v>
@@ -3915,18 +3918,18 @@
         <v>166</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -3935,16 +3938,16 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I42" s="2">
         <v>59</v>
@@ -3953,13 +3956,13 @@
         <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>161</v>
@@ -3967,7 +3970,7 @@
     </row>
     <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>19</v>
@@ -3976,16 +3979,16 @@
         <v>20</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
@@ -3994,36 +3997,36 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>128</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I44" s="2">
         <v>79</v>
@@ -4032,33 +4035,33 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I45" s="2">
         <v>82</v>
@@ -4067,21 +4070,21 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>19</v>
@@ -4090,19 +4093,19 @@
         <v>20</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>29</v>
@@ -4111,33 +4114,33 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I47" s="2">
         <v>77</v>
@@ -4146,53 +4149,53 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>19</v>
@@ -4201,13 +4204,13 @@
         <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>22</v>
@@ -4216,30 +4219,30 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I50" s="2">
         <v>81</v>
@@ -4248,33 +4251,33 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>152</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I51" s="2">
         <v>87</v>
@@ -4283,36 +4286,36 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>170</v>
+        <v>602</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>144</v>
@@ -4324,30 +4327,30 @@
         <v>167</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I53" s="2">
         <v>73</v>
@@ -4356,21 +4359,21 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -4379,13 +4382,13 @@
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I54" s="2">
         <v>56</v>
@@ -4394,21 +4397,21 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>19</v>
@@ -4417,13 +4420,13 @@
         <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I55" s="2">
         <v>54</v>
@@ -4432,30 +4435,30 @@
         <v>6</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I56" s="2">
         <v>74</v>
@@ -4464,33 +4467,33 @@
         <v>7</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I57" s="2">
         <v>41</v>
@@ -4499,21 +4502,21 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>19</v>
@@ -4522,16 +4525,16 @@
         <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I58" s="2">
         <v>45</v>
@@ -4540,21 +4543,21 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>19</v>
@@ -4563,16 +4566,16 @@
         <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I59" s="2">
         <v>51</v>
@@ -4581,21 +4584,21 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -4604,16 +4607,16 @@
         <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I60" s="2">
         <v>58</v>
@@ -4622,21 +4625,21 @@
         <v>7</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>19</v>
@@ -4645,13 +4648,13 @@
         <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>57</v>
@@ -4660,21 +4663,21 @@
         <v>6</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>19</v>
@@ -4683,13 +4686,13 @@
         <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I62" s="2">
         <v>55</v>
@@ -4698,21 +4701,21 @@
         <v>6</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>19</v>
@@ -4721,13 +4724,13 @@
         <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>53</v>
@@ -4736,33 +4739,33 @@
         <v>6</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I64" s="2">
         <v>75</v>
@@ -4771,21 +4774,21 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>19</v>
@@ -4794,16 +4797,16 @@
         <v>20</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I65" s="2">
         <v>46</v>
@@ -4812,21 +4815,21 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -4835,16 +4838,16 @@
         <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I66" s="2">
         <v>46</v>
@@ -4853,21 +4856,21 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>19</v>
@@ -4876,16 +4879,16 @@
         <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I67" s="2">
         <v>49</v>
@@ -4894,21 +4897,21 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>19</v>
@@ -4917,16 +4920,16 @@
         <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I68" s="2">
         <v>52</v>
@@ -4935,21 +4938,21 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>19</v>
@@ -4958,16 +4961,16 @@
         <v>20</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I69" s="2">
         <v>52</v>
@@ -4976,21 +4979,21 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>19</v>
@@ -4999,16 +5002,16 @@
         <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I70" s="2">
         <v>48</v>
@@ -5017,21 +5020,21 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>19</v>
@@ -5040,16 +5043,16 @@
         <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I71" s="2">
         <v>53</v>
@@ -5058,21 +5061,21 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -5081,19 +5084,19 @@
         <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I72" s="2">
         <v>48</v>
@@ -5102,18 +5105,18 @@
         <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>19</v>
@@ -5122,19 +5125,19 @@
         <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I73" s="2">
         <v>51</v>
@@ -5143,21 +5146,21 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>19</v>
@@ -5166,16 +5169,16 @@
         <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I74" s="2">
         <v>58</v>
@@ -5184,33 +5187,33 @@
         <v>7</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I75" s="2">
         <v>74</v>
@@ -5219,36 +5222,36 @@
         <v>7</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I76" s="2">
         <v>78</v>
@@ -5257,21 +5260,21 @@
         <v>6</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>19</v>
@@ -5280,19 +5283,19 @@
         <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I77" s="2">
         <v>52</v>
@@ -5301,21 +5304,21 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>19</v>
@@ -5324,19 +5327,19 @@
         <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I78" s="2">
         <v>53</v>
@@ -5345,36 +5348,36 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I79" s="2">
         <v>82</v>
@@ -5383,33 +5386,33 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>151</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I80" s="2">
         <v>86</v>
@@ -5418,16 +5421,16 @@
         <v>4</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>165</v>
@@ -5435,19 +5438,19 @@
     </row>
     <row r="81" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5456,36 +5459,36 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I82" s="2">
         <v>86</v>
@@ -5494,47 +5497,47 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="L83" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>19</v>
@@ -5543,13 +5546,13 @@
         <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I84" s="2">
         <v>57</v>
@@ -5558,36 +5561,36 @@
         <v>7</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I85" s="2">
         <v>42</v>
@@ -5596,30 +5599,30 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>15</v>
@@ -5628,30 +5631,30 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I87" s="2">
         <v>43</v>
@@ -5660,33 +5663,33 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="216" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I88" s="2">
         <v>37</v>
@@ -5695,33 +5698,33 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>3</v>
@@ -5730,36 +5733,36 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>4</v>
@@ -5768,82 +5771,82 @@
         <v>1</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>160</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>19</v>
@@ -5852,16 +5855,16 @@
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>61</v>
@@ -5870,21 +5873,21 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>19</v>
@@ -5893,16 +5896,19 @@
         <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F94" s="2" t="s">
+        <v>601</v>
+      </c>
       <c r="G94" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I94" s="2">
         <v>46</v>
@@ -5911,16 +5917,16 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>159</v>
@@ -5928,7 +5934,7 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>19</v>
@@ -5937,16 +5943,16 @@
         <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I95" s="2">
         <v>52</v>
@@ -5955,33 +5961,33 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I96" s="2">
         <v>75</v>
@@ -5990,65 +5996,65 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>155</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I98" s="2">
         <v>88</v>
@@ -6057,36 +6063,36 @@
         <v>7</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I99" s="2">
         <v>83</v>
@@ -6095,39 +6101,39 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I100" s="2">
         <v>87</v>
@@ -6136,33 +6142,33 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>102</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I101" s="2">
         <v>71</v>
@@ -6171,33 +6177,33 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I102" s="2">
         <v>80</v>
@@ -6206,36 +6212,36 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>148</v>
@@ -6247,33 +6253,33 @@
         <v>168</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I104" s="2">
         <v>88</v>
@@ -6282,19 +6288,19 @@
         <v>7</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>169</v>
@@ -6302,36 +6308,36 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>164</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K105" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="U105" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="U105" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>19</v>
@@ -6340,16 +6346,16 @@
         <v>66</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I106" s="2">
         <v>60</v>
@@ -6358,16 +6364,16 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U106" s="2" t="s">
         <v>163</v>
@@ -6375,7 +6381,7 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>19</v>
@@ -6384,13 +6390,13 @@
         <v>66</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I107" s="2">
         <v>61</v>
@@ -6399,24 +6405,24 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>19</v>
@@ -6425,13 +6431,13 @@
         <v>66</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>77</v>
@@ -6440,19 +6446,19 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U108" s="2" t="s">
         <v>163</v>
@@ -6460,19 +6466,19 @@
     </row>
     <row r="109" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I109" s="2">
         <v>72</v>
@@ -6481,33 +6487,33 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I110" s="2">
         <v>74</v>
@@ -6517,33 +6523,33 @@
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>90</v>
@@ -6552,34 +6558,34 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I112" s="2">
         <v>65</v>
@@ -6588,24 +6594,24 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>83</v>
@@ -6614,13 +6620,13 @@
         <v>30</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I113" s="2">
         <v>70</v>
@@ -6629,30 +6635,30 @@
         <v>4</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>8</v>
@@ -6661,33 +6667,33 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>12</v>
@@ -6696,24 +6702,24 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>19</v>
@@ -6722,16 +6728,16 @@
         <v>78</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I116" s="2">
         <v>62</v>
@@ -6740,86 +6746,86 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>123</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>124</v>
@@ -6828,24 +6834,24 @@
         <v>6</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U119" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>19</v>
@@ -6854,16 +6860,16 @@
         <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I120" s="2">
         <v>51</v>
@@ -6872,33 +6878,33 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I121" s="2">
         <v>68</v>
@@ -6907,33 +6913,33 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I122" s="2">
         <v>75</v>
@@ -6942,33 +6948,33 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>134</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I123" s="2">
         <v>81</v>
@@ -6977,21 +6983,21 @@
         <v>5</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>19</v>
@@ -7000,16 +7006,16 @@
         <v>66</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I124" s="2">
         <v>60</v>
@@ -7018,21 +7024,21 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>19</v>
@@ -7041,16 +7047,16 @@
         <v>66</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I125" s="2">
         <v>61</v>
@@ -7059,24 +7065,24 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>19</v>
@@ -7085,16 +7091,16 @@
         <v>66</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I126" s="2">
         <v>61</v>
@@ -7103,68 +7109,68 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E127" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="U127" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="U127" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>109</v>
@@ -7173,33 +7179,33 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I129" s="2">
         <v>73</v>
@@ -7208,18 +7214,18 @@
         <v>6</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>19</v>
@@ -7228,16 +7234,16 @@
         <v>78</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I130" s="2">
         <v>63</v>
@@ -7246,21 +7252,21 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>19</v>
@@ -7269,16 +7275,16 @@
         <v>78</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I131" s="2">
         <v>63</v>
@@ -7287,21 +7293,21 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>19</v>
@@ -7310,19 +7316,19 @@
         <v>78</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I132" s="2">
         <v>63</v>
@@ -7331,40 +7337,40 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I133" s="2">
         <v>72</v>
@@ -7373,21 +7379,21 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>19</v>
@@ -7396,17 +7402,17 @@
         <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>34</v>
@@ -7415,18 +7421,18 @@
         <v>3</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>19</v>
@@ -7435,19 +7441,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>37</v>
@@ -7456,21 +7462,21 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>19</v>
@@ -7479,16 +7485,16 @@
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I136" s="2">
         <v>51</v>
@@ -7497,30 +7503,30 @@
         <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>133</v>
@@ -7529,21 +7535,21 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>125</v>
@@ -7552,42 +7558,42 @@
         <v>30</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I139" s="2">
         <v>82</v>
@@ -7596,39 +7602,39 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I140" s="2">
         <v>40</v>
@@ -7637,33 +7643,33 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I141" s="2">
         <v>69</v>
@@ -7672,473 +7678,473 @@
         <v>4</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U141" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I142" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="U142" s="12" t="s">
         <v>365</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="U142" s="12" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="H143" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U143" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I144" s="2" t="s">
+      <c r="K144" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="U144" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="U144" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I145" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="U145" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="U145" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U146" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="H147" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="L148" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I149" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="L149" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U149" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="K154" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BD753A-5D71-43B2-87FF-0EF641C6A7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5B343E-FB5F-4A3C-84AA-0F69B6D1E488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1508,13 +1508,6 @@
     <t>zijn moet er bij maar niet als het Kop is (en dat is nu zo)</t>
   </si>
   <si>
-    <t>//node[(@rel='--' or @rel="nucl") and count(node) = 2 and node[ @lemma!="niet"] and 
-       (node[@lemma="niet" ] or 
-	    node[@cat="advp" and node[@lemma="niet"] ]
-	   )
-	  ]</t>
-  </si>
-  <si>
     <t>//node[@cat="np" and node[@rel="det"] and node[@rel="mod" and @pt="bw" and (not(@special) or @special!="er")] and count(node)=3]</t>
   </si>
   <si>
@@ -1919,6 +1912,9 @@
   </si>
   <si>
     <t>//node[%MvTT% ]</t>
+  </si>
+  <si>
+    <t>//node[%Xneg%]</t>
   </si>
 </sst>
 </file>
@@ -2339,11 +2335,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G127" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomRight" activeCell="K136" sqref="K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2407,22 +2403,22 @@
         <v>445</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2442,13 +2438,13 @@
         <v>195</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>356</v>
@@ -2460,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>356</v>
@@ -2554,7 +2550,7 @@
         <v>446</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2618,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>356</v>
@@ -2647,7 +2643,7 @@
         <v>195</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>356</v>
@@ -2659,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>357</v>
@@ -2773,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>356</v>
@@ -2837,7 +2833,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>356</v>
@@ -2849,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>356</v>
@@ -2922,7 +2918,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>357</v>
@@ -2957,7 +2953,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>356</v>
@@ -2986,7 +2982,7 @@
         <v>356</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>357</v>
@@ -3085,7 +3081,7 @@
         <v>393</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>356</v>
@@ -3097,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>356</v>
@@ -3164,7 +3160,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>356</v>
@@ -3199,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>356</v>
@@ -3228,7 +3224,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>356</v>
@@ -3240,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>356</v>
@@ -3272,7 +3268,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>356</v>
@@ -3284,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>356</v>
@@ -3296,7 +3292,7 @@
         <v>446</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -3354,7 +3350,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>356</v>
@@ -3462,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>356</v>
@@ -3500,7 +3496,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>356</v>
@@ -3652,7 +3648,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>356</v>
@@ -3757,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>356</v>
@@ -3786,7 +3782,7 @@
         <v>212</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>356</v>
@@ -3798,7 +3794,7 @@
         <v>366</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>356</v>
@@ -3827,7 +3823,7 @@
         <v>213</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>356</v>
@@ -3839,7 +3835,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>356</v>
@@ -3865,7 +3861,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>356</v>
@@ -3877,7 +3873,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>356</v>
@@ -3997,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>356</v>
@@ -4035,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>356</v>
@@ -4070,7 +4066,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>356</v>
@@ -4102,7 +4098,7 @@
         <v>205</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>356</v>
@@ -4114,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>356</v>
@@ -4149,7 +4145,7 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>356</v>
@@ -4178,7 +4174,7 @@
         <v>357</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>357</v>
@@ -4286,7 +4282,7 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>356</v>
@@ -4359,7 +4355,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>356</v>
@@ -4397,7 +4393,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>356</v>
@@ -4476,7 +4472,7 @@
         <v>446</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
@@ -4502,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>357</v>
@@ -4531,7 +4527,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>356</v>
@@ -4543,7 +4539,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>356</v>
@@ -4572,7 +4568,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>356</v>
@@ -4584,7 +4580,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>356</v>
@@ -4634,7 +4630,7 @@
         <v>446</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -4815,7 +4811,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>356</v>
@@ -4844,7 +4840,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>356</v>
@@ -4856,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>356</v>
@@ -4885,7 +4881,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>356</v>
@@ -4897,7 +4893,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>356</v>
@@ -4926,7 +4922,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>356</v>
@@ -4938,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>356</v>
@@ -4967,7 +4963,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>356</v>
@@ -4979,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>356</v>
@@ -5008,7 +5004,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>356</v>
@@ -5020,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>356</v>
@@ -5049,7 +5045,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>356</v>
@@ -5061,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>356</v>
@@ -5090,10 +5086,10 @@
         <v>409</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>356</v>
@@ -5131,10 +5127,10 @@
         <v>190</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>356</v>
@@ -5146,7 +5142,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>356</v>
@@ -5196,7 +5192,7 @@
         <v>446</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5231,7 +5227,7 @@
         <v>446</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -5289,10 +5285,10 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>356</v>
@@ -5304,7 +5300,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>356</v>
@@ -5333,10 +5329,10 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>356</v>
@@ -5348,7 +5344,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>356</v>
@@ -5374,7 +5370,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>356</v>
@@ -5450,7 +5446,7 @@
         <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5459,7 +5455,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>356</v>
@@ -5497,7 +5493,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>356</v>
@@ -5573,7 +5569,7 @@
         <v>446</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -5686,7 +5682,7 @@
         <v>385</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>356</v>
@@ -5698,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>356</v>
@@ -5733,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>356</v>
@@ -5794,7 +5790,7 @@
         <v>386</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>356</v>
@@ -5832,7 +5828,7 @@
         <v>356</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>357</v>
@@ -5873,7 +5869,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>356</v>
@@ -5902,10 +5898,10 @@
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>356</v>
@@ -5917,7 +5913,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>356</v>
@@ -5949,7 +5945,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>356</v>
@@ -5961,7 +5957,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>356</v>
@@ -6028,7 +6024,7 @@
         <v>455</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>356</v>
@@ -6072,7 +6068,7 @@
         <v>446</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6101,7 +6097,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>356</v>
@@ -6177,7 +6173,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>356</v>
@@ -6212,7 +6208,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>356</v>
@@ -6300,7 +6296,7 @@
         <v>458</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>169</v>
@@ -6364,7 +6360,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>356</v>
@@ -6405,7 +6401,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>356</v>
@@ -6446,7 +6442,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>356</v>
@@ -6487,7 +6483,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>356</v>
@@ -6532,7 +6528,7 @@
         <v>446</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -6558,7 +6554,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>356</v>
@@ -6594,7 +6590,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>356</v>
@@ -6606,7 +6602,7 @@
         <v>446</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
@@ -6655,7 +6651,7 @@
         <v>195</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>356</v>
@@ -6667,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>357</v>
@@ -6702,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>356</v>
@@ -6714,7 +6710,7 @@
         <v>446</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
@@ -6734,7 +6730,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>356</v>
@@ -6866,7 +6862,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>356</v>
@@ -6878,7 +6874,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>356</v>
@@ -6913,7 +6909,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>356</v>
@@ -6948,7 +6944,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>357</v>
@@ -7012,7 +7008,7 @@
         <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>356</v>
@@ -7024,7 +7020,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>356</v>
@@ -7053,7 +7049,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>356</v>
@@ -7065,7 +7061,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>356</v>
@@ -7097,7 +7093,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>356</v>
@@ -7109,7 +7105,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>356</v>
@@ -7179,7 +7175,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>356</v>
@@ -7240,7 +7236,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>356</v>
@@ -7252,7 +7248,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>356</v>
@@ -7281,7 +7277,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>356</v>
@@ -7293,7 +7289,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>356</v>
@@ -7325,7 +7321,7 @@
         <v>444</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>356</v>
@@ -7337,7 +7333,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>356</v>
@@ -7409,7 +7405,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>356</v>
@@ -7430,7 +7426,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>348</v>
       </c>
@@ -7450,7 +7446,7 @@
         <v>207</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>356</v>
@@ -7462,7 +7458,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>482</v>
+        <v>602</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>356</v>
@@ -7491,7 +7487,7 @@
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>356</v>
@@ -7614,7 +7610,7 @@
         <v>446</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -7631,7 +7627,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>356</v>
@@ -7643,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>356</v>
@@ -7704,7 +7700,7 @@
         <v>196</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>356</v>
@@ -7908,7 +7904,7 @@
         <v>413</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>356</v>
@@ -8089,7 +8085,7 @@
         <v>447</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
@@ -8123,19 +8119,19 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>356</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>356</v>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5B343E-FB5F-4A3C-84AA-0F69B6D1E488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9064BBB-6D8B-4592-9AE8-58F4F389F530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1585,11 +1585,6 @@
               (%Rpronoun% and @begin=../node[@rel="hd"]/@end)) ]]</t>
   </si>
   <si>
-    <t>//node[(node[@rel="mod" and %adjoradv%] and
-       node[@rel="hd"  and %adjoradv%])     
-   ]</t>
-  </si>
-  <si>
     <t>vu nee/ja, vu ja/nee,V.U. Ja/nee, nee, ja</t>
   </si>
   <si>
@@ -1915,6 +1910,10 @@
   </si>
   <si>
     <t>//node[%Xneg%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//node[%bbvb%]
+</t>
   </si>
 </sst>
 </file>
@@ -2335,11 +2334,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K136" sqref="K136"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2403,22 +2402,22 @@
         <v>445</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2438,13 +2437,13 @@
         <v>195</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>356</v>
@@ -2456,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>356</v>
@@ -2550,7 +2549,7 @@
         <v>446</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2614,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>356</v>
@@ -2643,7 +2642,7 @@
         <v>195</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>356</v>
@@ -2655,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>357</v>
@@ -2746,7 +2745,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>224</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>504</v>
+        <v>602</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>356</v>
@@ -2833,7 +2832,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>356</v>
@@ -2845,7 +2844,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>356</v>
@@ -2953,7 +2952,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>356</v>
@@ -3081,7 +3080,7 @@
         <v>393</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>356</v>
@@ -3093,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>356</v>
@@ -3224,7 +3223,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>356</v>
@@ -3236,7 +3235,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>356</v>
@@ -3268,7 +3267,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>356</v>
@@ -3280,7 +3279,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>356</v>
@@ -3292,7 +3291,7 @@
         <v>446</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -3350,7 +3349,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>356</v>
@@ -3458,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>356</v>
@@ -3496,7 +3495,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>356</v>
@@ -3648,7 +3647,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>356</v>
@@ -3753,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>356</v>
@@ -3782,7 +3781,7 @@
         <v>212</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>356</v>
@@ -3794,7 +3793,7 @@
         <v>366</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>356</v>
@@ -3823,7 +3822,7 @@
         <v>213</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>356</v>
@@ -3835,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>356</v>
@@ -3861,7 +3860,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>356</v>
@@ -3993,7 +3992,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>356</v>
@@ -4031,7 +4030,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>356</v>
@@ -4098,7 +4097,7 @@
         <v>205</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>356</v>
@@ -4174,7 +4173,7 @@
         <v>357</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>357</v>
@@ -4282,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>356</v>
@@ -4472,7 +4471,7 @@
         <v>446</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
@@ -4498,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>357</v>
@@ -4527,7 +4526,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>356</v>
@@ -4539,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>356</v>
@@ -4568,7 +4567,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>356</v>
@@ -4580,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>356</v>
@@ -4630,7 +4629,7 @@
         <v>446</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -4811,7 +4810,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>356</v>
@@ -4840,7 +4839,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>356</v>
@@ -4852,7 +4851,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>356</v>
@@ -4881,7 +4880,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>356</v>
@@ -4893,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>356</v>
@@ -4922,7 +4921,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>356</v>
@@ -4963,7 +4962,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>356</v>
@@ -5004,7 +5003,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>356</v>
@@ -5016,7 +5015,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>356</v>
@@ -5045,7 +5044,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>356</v>
@@ -5057,7 +5056,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>356</v>
@@ -5086,10 +5085,10 @@
         <v>409</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>356</v>
@@ -5127,10 +5126,10 @@
         <v>190</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>356</v>
@@ -5142,7 +5141,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>356</v>
@@ -5192,7 +5191,7 @@
         <v>446</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5227,7 +5226,7 @@
         <v>446</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -5285,10 +5284,10 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>356</v>
@@ -5300,7 +5299,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>356</v>
@@ -5329,10 +5328,10 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>356</v>
@@ -5344,7 +5343,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>356</v>
@@ -5370,7 +5369,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>356</v>
@@ -5446,7 +5445,7 @@
         <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5455,7 +5454,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>356</v>
@@ -5493,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>356</v>
@@ -5569,7 +5568,7 @@
         <v>446</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -5682,7 +5681,7 @@
         <v>385</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>356</v>
@@ -5694,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>356</v>
@@ -5790,7 +5789,7 @@
         <v>386</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>356</v>
@@ -5828,7 +5827,7 @@
         <v>356</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>357</v>
@@ -5869,7 +5868,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>356</v>
@@ -5898,10 +5897,10 @@
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>356</v>
@@ -5913,7 +5912,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>356</v>
@@ -5945,7 +5944,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>356</v>
@@ -5957,7 +5956,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>356</v>
@@ -6024,7 +6023,7 @@
         <v>455</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>356</v>
@@ -6068,7 +6067,7 @@
         <v>446</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6097,7 +6096,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>356</v>
@@ -6173,7 +6172,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>356</v>
@@ -6208,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>356</v>
@@ -6296,7 +6295,7 @@
         <v>458</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>169</v>
@@ -6360,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>356</v>
@@ -6401,7 +6400,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>356</v>
@@ -6442,7 +6441,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>356</v>
@@ -6528,7 +6527,7 @@
         <v>446</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -6554,7 +6553,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>356</v>
@@ -6590,7 +6589,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>356</v>
@@ -6651,7 +6650,7 @@
         <v>195</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>356</v>
@@ -6663,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>357</v>
@@ -6698,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>356</v>
@@ -6730,7 +6729,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>356</v>
@@ -6862,7 +6861,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>356</v>
@@ -6874,7 +6873,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>356</v>
@@ -7008,7 +7007,7 @@
         <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>356</v>
@@ -7020,7 +7019,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>356</v>
@@ -7049,7 +7048,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>356</v>
@@ -7061,7 +7060,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>356</v>
@@ -7093,7 +7092,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>356</v>
@@ -7105,7 +7104,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>356</v>
@@ -7175,7 +7174,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>356</v>
@@ -7236,7 +7235,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>356</v>
@@ -7248,7 +7247,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>356</v>
@@ -7277,7 +7276,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>356</v>
@@ -7289,7 +7288,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>356</v>
@@ -7321,7 +7320,7 @@
         <v>444</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>356</v>
@@ -7333,7 +7332,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>356</v>
@@ -7405,7 +7404,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>356</v>
@@ -7446,7 +7445,7 @@
         <v>207</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>356</v>
@@ -7458,7 +7457,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>356</v>
@@ -7487,7 +7486,7 @@
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>356</v>
@@ -7610,7 +7609,7 @@
         <v>446</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -7627,7 +7626,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>356</v>
@@ -7639,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>356</v>
@@ -7700,7 +7699,7 @@
         <v>196</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>356</v>
@@ -7904,7 +7903,7 @@
         <v>413</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>356</v>
@@ -8085,7 +8084,7 @@
         <v>447</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9064BBB-6D8B-4592-9AE8-58F4F389F530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CCC592-85A0-4446-9D11-97E4B9395BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,9 +525,6 @@
     <t>Cannot be dealt with by GrETEL</t>
   </si>
   <si>
-    <t>//node[ @lemma="hè"]</t>
-  </si>
-  <si>
     <t>Zie VR</t>
   </si>
   <si>
@@ -1562,9 +1559,6 @@
   </si>
   <si>
     <t>//node[@rel="mod"and @cat="rel" and parent::node[node[@pt="n" and @rel="hd"]]]</t>
-  </si>
-  <si>
-    <t>//node[@pt="ww" and contains(@lemma,"_") and @rel ="hd" and parent::node[node[@rel="svp"]]]</t>
   </si>
   <si>
     <t>//node[@pt="ww" and @rel="hd"  and parent::node[node[ @rel="vc" and (@cat="inf" or @cat="ppart")]]]</t>
@@ -1696,15 +1690,6 @@
     <t>//node[%Tarsp_coreW%]</t>
   </si>
   <si>
-    <t>//node[ (@lemma!="ja" and @lemma!="nee" and @word!="xxx" and @lemma != "mama" and @word!="xx" and 
-       ((@pt="tsw" and @lemma!="hè") or
-        (@pt="tsw" and @lemma="hè" and @rel="tag" and number(@end)&lt;=number(../node[@rel="nucl"]/@begin)) or
-        ((@lemma="au" or @lemma="hoepla" or @lemma="dag" or @lemma="kijk" or @lemma="hap" or @lemma="aai" ) and
-         (@rel="--" or @rel="sat" or @rel="tag"))  		 
-		 ) )	or  %Tarsp_kijkVU%	 or %Tarsp_hehe%
-]</t>
-  </si>
-  <si>
     <t>//node[((@rel="vc" or @rel="su") and (@cat="cp" or @cat="whsub")) or %directerede_vcbijzin%]</t>
   </si>
   <si>
@@ -1847,17 +1832,6 @@
   </si>
   <si>
     <t>RB, RW</t>
-  </si>
-  <si>
-    <t>//node[@pt="ww"]/ancestor::node[@cat="top" and count(.//node[%realnode%]) = 1 ]</t>
-  </si>
-  <si>
-    <t>//node[@pt="n"]/ancestor::node[@cat="top" and  count(.//node[%realnode%])=1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//node[@cat="top" and .//node[@pt='adj' or @pt='bw' or @pt='vz'] and 
-  count(.//node[%realnode%])=1]
-  </t>
   </si>
   <si>
     <t>Bv / B, B, G_B</t>
@@ -1914,6 +1888,24 @@
   <si>
     <t xml:space="preserve">//node[%bbvb%]
 </t>
+  </si>
+  <si>
+    <t>hequery</t>
+  </si>
+  <si>
+    <t>vudivers</t>
+  </si>
+  <si>
+    <t>//node[@pt="ww" and not(%Tarsp_kijkVU%) and ancestor::node[@cat="top" and count(.//node[%realwordnode%]) = 1 ]]</t>
+  </si>
+  <si>
+    <t>//node[(@pt='adj' or @pt='bw' or @pt='vz') and @lemma!="kijk" and ancestor::node[@cat="top" and  count(.//node[%realwordnode%])=1]]</t>
+  </si>
+  <si>
+    <t>//node[@pt="n" and %realwordnode% and @lemma!="kijk"]/ancestor::node[@cat="top" and  count(.//node[%realwordnode%])=1]</t>
+  </si>
+  <si>
+    <t>//node[@pt="ww" and contains(@lemma,"_") and @rel ="hd" and parent::node[node[@rel="svp" and not(%svpofhww%)]]]</t>
   </si>
 </sst>
 </file>
@@ -2331,14 +2323,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2360,7 +2353,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -2369,19 +2362,19 @@
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -2393,39 +2386,39 @@
         <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -2434,19 +2427,19 @@
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I2" s="2">
         <v>60</v>
@@ -2455,24 +2448,24 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -2481,13 +2474,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I3" s="2">
         <v>56</v>
@@ -2496,24 +2489,24 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -2522,16 +2515,16 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>64</v>
@@ -2540,33 +2533,33 @@
         <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>122</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I5" s="2">
         <v>77</v>
@@ -2575,36 +2568,36 @@
         <v>6</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I6" s="2">
         <v>79</v>
@@ -2613,39 +2606,39 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I7" s="2">
         <v>42</v>
@@ -2654,21 +2647,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>83</v>
@@ -2677,13 +2670,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I8" s="2">
         <v>70</v>
@@ -2692,21 +2685,21 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -2715,13 +2708,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I9" s="2">
         <v>57</v>
@@ -2730,36 +2723,36 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I10" s="2">
         <v>67</v>
@@ -2768,21 +2761,21 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>83</v>
@@ -2791,13 +2784,13 @@
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>99</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I11" s="2">
         <v>70</v>
@@ -2806,18 +2799,18 @@
         <v>4</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -2826,16 +2819,16 @@
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I12" s="2">
         <v>50</v>
@@ -2844,33 +2837,33 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I13" s="2">
         <v>71</v>
@@ -2879,21 +2872,21 @@
         <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>83</v>
@@ -2902,13 +2895,13 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I14" s="2">
         <v>70</v>
@@ -2917,33 +2910,33 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I15" s="2">
         <v>68</v>
@@ -2952,62 +2945,62 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I17" s="2">
         <v>75</v>
@@ -3016,18 +3009,18 @@
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -3036,16 +3029,16 @@
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>50</v>
@@ -3054,36 +3047,36 @@
         <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I19" s="2">
         <v>40</v>
@@ -3092,33 +3085,33 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>154</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>156</v>
@@ -3127,30 +3120,30 @@
         <v>6</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I21" s="2">
         <v>69</v>
@@ -3159,33 +3152,33 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I22" s="2">
         <v>66</v>
@@ -3194,21 +3187,21 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
@@ -3217,16 +3210,16 @@
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I23" s="2">
         <v>53</v>
@@ -3235,21 +3228,21 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="23.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -3258,19 +3251,19 @@
         <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>27</v>
@@ -3279,36 +3272,36 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>18</v>
@@ -3317,30 +3310,30 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I26" s="2">
         <v>66</v>
@@ -3349,36 +3342,36 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I27" s="2">
         <v>68</v>
@@ -3387,33 +3380,33 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I28" s="2">
         <v>71</v>
@@ -3422,33 +3415,33 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I29" s="2">
         <v>64</v>
@@ -3457,36 +3450,36 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I30" s="2">
         <v>77</v>
@@ -3495,36 +3488,36 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>136</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I31" s="2">
         <v>81</v>
@@ -3533,36 +3526,36 @@
         <v>6</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I32" s="2">
         <v>72</v>
@@ -3571,21 +3564,21 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>19</v>
@@ -3594,16 +3587,16 @@
         <v>66</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>69</v>
@@ -3612,33 +3605,33 @@
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>162</v>
+        <v>597</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>138</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I34" s="2">
         <v>82</v>
@@ -3647,33 +3640,33 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>131</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I35" s="2">
         <v>80</v>
@@ -3682,33 +3675,33 @@
         <v>4</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I36" s="2">
         <v>71</v>
@@ -3717,33 +3710,33 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I37" s="2">
         <v>80</v>
@@ -3752,80 +3745,80 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I38" s="2">
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I39" s="2">
         <v>69</v>
@@ -3834,36 +3827,36 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>146</v>
@@ -3872,36 +3865,36 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>127</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I41" s="2">
         <v>79</v>
@@ -3910,21 +3903,21 @@
         <v>3</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -3933,16 +3926,16 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I42" s="2">
         <v>59</v>
@@ -3951,21 +3944,21 @@
         <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>19</v>
@@ -3974,16 +3967,16 @@
         <v>20</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
@@ -3992,36 +3985,36 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>128</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I44" s="2">
         <v>79</v>
@@ -4030,33 +4023,33 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I45" s="2">
         <v>82</v>
@@ -4065,21 +4058,21 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>19</v>
@@ -4088,19 +4081,19 @@
         <v>20</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>29</v>
@@ -4109,33 +4102,33 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I47" s="2">
         <v>77</v>
@@ -4144,53 +4137,53 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="U48" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="U48" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>19</v>
@@ -4199,13 +4192,13 @@
         <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>22</v>
@@ -4214,30 +4207,30 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I50" s="2">
         <v>81</v>
@@ -4246,33 +4239,33 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>152</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I51" s="2">
         <v>87</v>
@@ -4281,36 +4274,36 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>144</v>
@@ -4319,33 +4312,33 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I53" s="2">
         <v>73</v>
@@ -4354,21 +4347,21 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -4377,13 +4370,13 @@
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I54" s="2">
         <v>56</v>
@@ -4392,21 +4385,21 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>19</v>
@@ -4415,13 +4408,13 @@
         <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I55" s="2">
         <v>54</v>
@@ -4430,30 +4423,30 @@
         <v>6</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I56" s="2">
         <v>74</v>
@@ -4462,33 +4455,33 @@
         <v>7</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I57" s="2">
         <v>41</v>
@@ -4497,21 +4490,21 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>19</v>
@@ -4520,16 +4513,16 @@
         <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I58" s="2">
         <v>45</v>
@@ -4538,21 +4531,21 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>19</v>
@@ -4561,16 +4554,16 @@
         <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I59" s="2">
         <v>51</v>
@@ -4579,21 +4572,21 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -4602,16 +4595,16 @@
         <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I60" s="2">
         <v>58</v>
@@ -4620,21 +4613,21 @@
         <v>7</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>19</v>
@@ -4643,13 +4636,13 @@
         <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>57</v>
@@ -4658,21 +4651,21 @@
         <v>6</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>19</v>
@@ -4681,13 +4674,13 @@
         <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I62" s="2">
         <v>55</v>
@@ -4696,21 +4689,21 @@
         <v>6</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>19</v>
@@ -4719,13 +4712,13 @@
         <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>53</v>
@@ -4734,33 +4727,33 @@
         <v>6</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I64" s="2">
         <v>75</v>
@@ -4769,21 +4762,21 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>19</v>
@@ -4792,16 +4785,16 @@
         <v>20</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I65" s="2">
         <v>46</v>
@@ -4810,21 +4803,21 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -4833,16 +4826,16 @@
         <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I66" s="2">
         <v>46</v>
@@ -4851,21 +4844,21 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>19</v>
@@ -4874,16 +4867,16 @@
         <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I67" s="2">
         <v>49</v>
@@ -4892,21 +4885,21 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>19</v>
@@ -4915,16 +4908,16 @@
         <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I68" s="2">
         <v>52</v>
@@ -4933,21 +4926,21 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>19</v>
@@ -4956,16 +4949,16 @@
         <v>20</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I69" s="2">
         <v>52</v>
@@ -4974,21 +4967,21 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>19</v>
@@ -4997,16 +4990,16 @@
         <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I70" s="2">
         <v>48</v>
@@ -5015,21 +5008,21 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>19</v>
@@ -5038,16 +5031,16 @@
         <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I71" s="2">
         <v>53</v>
@@ -5056,21 +5049,21 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -5079,19 +5072,19 @@
         <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I72" s="2">
         <v>48</v>
@@ -5100,18 +5093,18 @@
         <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>19</v>
@@ -5120,19 +5113,19 @@
         <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I73" s="2">
         <v>51</v>
@@ -5141,21 +5134,21 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>19</v>
@@ -5164,16 +5157,16 @@
         <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I74" s="2">
         <v>58</v>
@@ -5182,33 +5175,33 @@
         <v>7</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I75" s="2">
         <v>74</v>
@@ -5217,36 +5210,36 @@
         <v>7</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I76" s="2">
         <v>78</v>
@@ -5255,21 +5248,21 @@
         <v>6</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>19</v>
@@ -5278,19 +5271,19 @@
         <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I77" s="2">
         <v>52</v>
@@ -5299,21 +5292,21 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>19</v>
@@ -5322,19 +5315,19 @@
         <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I78" s="2">
         <v>53</v>
@@ -5343,36 +5336,36 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I79" s="2">
         <v>82</v>
@@ -5381,33 +5374,33 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>151</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I80" s="2">
         <v>86</v>
@@ -5416,36 +5409,36 @@
         <v>4</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="144" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5454,36 +5447,36 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I82" s="2">
         <v>86</v>
@@ -5492,47 +5485,47 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="L83" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>19</v>
@@ -5541,13 +5534,13 @@
         <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I84" s="2">
         <v>57</v>
@@ -5556,36 +5549,36 @@
         <v>7</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I85" s="2">
         <v>42</v>
@@ -5594,30 +5587,30 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>15</v>
@@ -5626,30 +5619,30 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I87" s="2">
         <v>43</v>
@@ -5658,33 +5651,33 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="216" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I88" s="2">
         <v>37</v>
@@ -5693,33 +5686,33 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>3</v>
@@ -5728,36 +5721,36 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>4</v>
@@ -5766,82 +5759,82 @@
         <v>1</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>160</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>19</v>
@@ -5850,16 +5843,16 @@
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>61</v>
@@ -5868,21 +5861,21 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>19</v>
@@ -5891,19 +5884,19 @@
         <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I94" s="2">
         <v>46</v>
@@ -5912,24 +5905,24 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>19</v>
@@ -5938,16 +5931,16 @@
         <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I95" s="2">
         <v>52</v>
@@ -5956,33 +5949,33 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I96" s="2">
         <v>75</v>
@@ -5991,65 +5984,65 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>155</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I98" s="2">
         <v>88</v>
@@ -6058,36 +6051,36 @@
         <v>7</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I99" s="2">
         <v>83</v>
@@ -6096,39 +6089,39 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I100" s="2">
         <v>87</v>
@@ -6137,33 +6130,33 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>102</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I101" s="2">
         <v>71</v>
@@ -6172,33 +6165,33 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I102" s="2">
         <v>80</v>
@@ -6207,36 +6200,36 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>148</v>
@@ -6245,36 +6238,36 @@
         <v>3</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I104" s="2">
         <v>88</v>
@@ -6283,56 +6276,56 @@
         <v>7</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="U104" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="U105" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K105" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="U105" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>19</v>
@@ -6341,16 +6334,16 @@
         <v>66</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I106" s="2">
         <v>60</v>
@@ -6359,24 +6352,24 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U106" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>19</v>
@@ -6385,13 +6378,13 @@
         <v>66</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I107" s="2">
         <v>61</v>
@@ -6400,24 +6393,24 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>19</v>
@@ -6426,13 +6419,13 @@
         <v>66</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>77</v>
@@ -6441,39 +6434,39 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="U108" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I109" s="2">
         <v>72</v>
@@ -6482,33 +6475,33 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I110" s="2">
         <v>74</v>
@@ -6518,33 +6511,33 @@
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>90</v>
@@ -6553,34 +6546,34 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I112" s="2">
         <v>65</v>
@@ -6589,24 +6582,24 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>83</v>
@@ -6615,13 +6608,13 @@
         <v>30</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I113" s="2">
         <v>70</v>
@@ -6630,30 +6623,30 @@
         <v>4</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>8</v>
@@ -6662,33 +6655,33 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>12</v>
@@ -6697,24 +6690,24 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>19</v>
@@ -6723,16 +6716,16 @@
         <v>78</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I116" s="2">
         <v>62</v>
@@ -6741,86 +6734,86 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>123</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>124</v>
@@ -6829,24 +6822,24 @@
         <v>6</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U119" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>19</v>
@@ -6855,16 +6848,16 @@
         <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I120" s="2">
         <v>51</v>
@@ -6873,33 +6866,33 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I121" s="2">
         <v>68</v>
@@ -6908,33 +6901,33 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>498</v>
+        <v>602</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I122" s="2">
         <v>75</v>
@@ -6943,33 +6936,33 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>134</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I123" s="2">
         <v>81</v>
@@ -6978,21 +6971,21 @@
         <v>5</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>19</v>
@@ -7001,16 +6994,16 @@
         <v>66</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I124" s="2">
         <v>60</v>
@@ -7019,21 +7012,21 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>19</v>
@@ -7042,16 +7035,16 @@
         <v>66</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I125" s="2">
         <v>61</v>
@@ -7060,24 +7053,24 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>19</v>
@@ -7086,16 +7079,16 @@
         <v>66</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I126" s="2">
         <v>61</v>
@@ -7104,68 +7097,68 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E127" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="U127" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H127" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="U127" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>109</v>
@@ -7174,33 +7167,33 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I129" s="2">
         <v>73</v>
@@ -7209,18 +7202,18 @@
         <v>6</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>19</v>
@@ -7229,16 +7222,16 @@
         <v>78</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I130" s="2">
         <v>63</v>
@@ -7247,21 +7240,21 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>19</v>
@@ -7270,16 +7263,16 @@
         <v>78</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I131" s="2">
         <v>63</v>
@@ -7288,21 +7281,21 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>19</v>
@@ -7311,19 +7304,19 @@
         <v>78</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I132" s="2">
         <v>63</v>
@@ -7332,40 +7325,40 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I133" s="2">
         <v>72</v>
@@ -7374,21 +7367,21 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>19</v>
@@ -7397,17 +7390,17 @@
         <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>34</v>
@@ -7416,18 +7409,18 @@
         <v>3</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>19</v>
@@ -7436,19 +7429,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>37</v>
@@ -7457,21 +7450,21 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>19</v>
@@ -7480,16 +7473,16 @@
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I136" s="2">
         <v>51</v>
@@ -7498,30 +7491,30 @@
         <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>133</v>
@@ -7530,21 +7523,21 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>125</v>
@@ -7553,42 +7546,42 @@
         <v>30</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I139" s="2">
         <v>82</v>
@@ -7597,39 +7590,39 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I140" s="2">
         <v>40</v>
@@ -7638,33 +7631,33 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I141" s="2">
         <v>69</v>
@@ -7673,481 +7666,487 @@
         <v>4</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U141" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I142" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="U142" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N142" s="2" t="s">
+    </row>
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N143" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="U142" s="12" t="s">
+      <c r="U143" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="U144" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="U145" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="U146" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J147" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="L143" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="U143" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="U144" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="U145" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="K147" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="L146" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="M146" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="U146" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="L147" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="L148" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N148" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N149" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L149" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="M149" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="N149" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="U149" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="B151" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H150" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="H151" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K151" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="L150" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="M150" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N150" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
+      <c r="L151" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E151" s="2" t="s">
+      <c r="B152" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="H151" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="H152" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K152" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="L151" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="M151" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N151" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="L152" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E153" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="R153" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="H153" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="B154" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="K154" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="L153" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="M153" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="N153" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="R153" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="L154" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V156" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V156" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N146">
     <sortCondition ref="E2:E146"/>
     <sortCondition ref="I2:I146"/>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CCC592-85A0-4446-9D11-97E4B9395BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65414AEC-73AF-490C-AD25-6BD87D6319DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1505,9 +1505,6 @@
     <t>zijn moet er bij maar niet als het Kop is (en dat is nu zo)</t>
   </si>
   <si>
-    <t>//node[@cat="np" and node[@rel="det"] and node[@rel="mod" and @pt="bw" and (not(@special) or @special!="er")] and count(node)=3]</t>
-  </si>
-  <si>
     <t>//node[%Tarsp_OndWBVC%]</t>
   </si>
   <si>
@@ -1906,6 +1903,9 @@
   </si>
   <si>
     <t>//node[@pt="ww" and contains(@lemma,"_") and @rel ="hd" and parent::node[node[@rel="svp" and not(%svpofhww%)]]]</t>
+  </si>
+  <si>
+    <t>//node[(@cat="np" and node[@rel="det"] and node[@rel="mod" and @pt="bw" and (not(@special) or @special!="er")] and count(node)=3) ]</t>
   </si>
 </sst>
 </file>
@@ -2323,15 +2323,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K121" sqref="K121"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2395,28 +2394,28 @@
         <v>444</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>215</v>
       </c>
@@ -2430,13 +2429,13 @@
         <v>194</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>355</v>
@@ -2448,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>355</v>
@@ -2463,7 +2462,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>216</v>
       </c>
@@ -2542,10 +2541,10 @@
         <v>445</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>218</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>219</v>
       </c>
@@ -2606,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>355</v>
@@ -2624,7 +2623,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>220</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>194</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>355</v>
@@ -2647,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>356</v>
@@ -2659,7 +2658,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>221</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>222</v>
       </c>
@@ -2738,7 +2737,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>223</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>355</v>
@@ -2773,7 +2772,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>224</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>225</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>355</v>
@@ -2837,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>355</v>
@@ -2849,7 +2848,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>226</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>227</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>356</v>
@@ -2922,7 +2921,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>228</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>355</v>
@@ -2957,7 +2956,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>229</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>355</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>356</v>
@@ -2986,7 +2985,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>230</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>231</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>232</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>392</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>355</v>
@@ -3085,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>355</v>
@@ -3097,7 +3096,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>233</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>234</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>481</v>
+        <v>602</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>355</v>
@@ -3164,7 +3163,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>235</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>355</v>
@@ -3199,7 +3198,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>236</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>355</v>
@@ -3228,7 +3227,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>355</v>
@@ -3240,7 +3239,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="23.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>237</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>355</v>
@@ -3272,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>355</v>
@@ -3284,10 +3283,10 @@
         <v>445</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>238</v>
       </c>
@@ -3319,7 +3318,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>239</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>355</v>
@@ -3357,7 +3356,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>240</v>
       </c>
@@ -3392,7 +3391,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>241</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>242</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>355</v>
@@ -3465,7 +3464,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>243</v>
       </c>
@@ -3488,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>355</v>
@@ -3503,7 +3502,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>244</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>245</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>246</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>355</v>
@@ -3617,7 +3616,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>247</v>
       </c>
@@ -3640,7 +3639,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>355</v>
@@ -3652,7 +3651,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>248</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>249</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>250</v>
       </c>
@@ -3745,7 +3744,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>355</v>
@@ -3757,7 +3756,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>251</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>211</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>355</v>
@@ -3786,7 +3785,7 @@
         <v>365</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>355</v>
@@ -3798,7 +3797,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>252</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>212</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>355</v>
@@ -3827,7 +3826,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>355</v>
@@ -3839,7 +3838,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>253</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>355</v>
@@ -3865,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>355</v>
@@ -3880,7 +3879,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>254</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>255</v>
       </c>
@@ -3956,7 +3955,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>256</v>
       </c>
@@ -3985,7 +3984,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>355</v>
@@ -4000,7 +3999,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>257</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>355</v>
@@ -4035,7 +4034,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>258</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>355</v>
@@ -4070,7 +4069,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>259</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>204</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>355</v>
@@ -4102,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>355</v>
@@ -4114,7 +4113,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>260</v>
       </c>
@@ -4137,7 +4136,7 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>355</v>
@@ -4152,7 +4151,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>261</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>356</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>356</v>
@@ -4181,7 +4180,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>262</v>
       </c>
@@ -4216,7 +4215,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>263</v>
       </c>
@@ -4251,7 +4250,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>264</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>355</v>
@@ -4286,7 +4285,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>265</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>266</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>355</v>
@@ -4359,7 +4358,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>267</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>355</v>
@@ -4397,7 +4396,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>268</v>
       </c>
@@ -4464,10 +4463,10 @@
         <v>445</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>270</v>
       </c>
@@ -4490,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>356</v>
@@ -4502,7 +4501,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>271</v>
       </c>
@@ -4519,7 +4518,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>355</v>
@@ -4531,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>355</v>
@@ -4543,7 +4542,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>272</v>
       </c>
@@ -4560,7 +4559,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>355</v>
@@ -4572,7 +4571,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>355</v>
@@ -4622,10 +4621,10 @@
         <v>445</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>274</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>275</v>
       </c>
@@ -4701,7 +4700,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>276</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>277</v>
       </c>
@@ -4774,7 +4773,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>278</v>
       </c>
@@ -4803,7 +4802,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>355</v>
@@ -4815,7 +4814,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>279</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>355</v>
@@ -4844,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>355</v>
@@ -4856,7 +4855,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>280</v>
       </c>
@@ -4873,7 +4872,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>355</v>
@@ -4885,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>355</v>
@@ -4897,7 +4896,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>281</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>355</v>
@@ -4926,7 +4925,7 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>355</v>
@@ -4938,7 +4937,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>282</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>355</v>
@@ -4967,7 +4966,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>355</v>
@@ -4979,7 +4978,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>283</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>355</v>
@@ -5008,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>355</v>
@@ -5020,7 +5019,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>284</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>355</v>
@@ -5049,7 +5048,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>355</v>
@@ -5061,7 +5060,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>285</v>
       </c>
@@ -5078,10 +5077,10 @@
         <v>408</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>355</v>
@@ -5102,7 +5101,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>286</v>
       </c>
@@ -5119,10 +5118,10 @@
         <v>189</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>355</v>
@@ -5134,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>355</v>
@@ -5184,7 +5183,7 @@
         <v>445</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5219,10 +5218,10 @@
         <v>445</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>289</v>
       </c>
@@ -5260,7 +5259,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>290</v>
       </c>
@@ -5277,10 +5276,10 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>355</v>
@@ -5292,7 +5291,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>355</v>
@@ -5304,7 +5303,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>291</v>
       </c>
@@ -5321,10 +5320,10 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>355</v>
@@ -5336,7 +5335,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>355</v>
@@ -5348,7 +5347,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>292</v>
       </c>
@@ -5362,7 +5361,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>355</v>
@@ -5386,7 +5385,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>293</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>294</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5447,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>355</v>
@@ -5459,7 +5458,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>295</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>355</v>
@@ -5497,7 +5496,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>296</v>
       </c>
@@ -5561,10 +5560,10 @@
         <v>445</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>298</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>299</v>
       </c>
@@ -5628,7 +5627,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>300</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>301</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>384</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>355</v>
@@ -5686,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>355</v>
@@ -5698,7 +5697,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>302</v>
       </c>
@@ -5721,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>355</v>
@@ -5733,7 +5732,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>303</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>389</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>385</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>355</v>
@@ -5806,7 +5805,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>304</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>355</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>356</v>
@@ -5832,7 +5831,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>305</v>
       </c>
@@ -5861,7 +5860,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>355</v>
@@ -5873,7 +5872,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>306</v>
       </c>
@@ -5890,10 +5889,10 @@
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>355</v>
@@ -5905,7 +5904,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>355</v>
@@ -5920,7 +5919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>307</v>
       </c>
@@ -5937,7 +5936,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>355</v>
@@ -5949,7 +5948,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>355</v>
@@ -5961,7 +5960,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>308</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>309</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>454</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>355</v>
@@ -6060,10 +6059,10 @@
         <v>445</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>311</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>355</v>
@@ -6104,7 +6103,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>312</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>313</v>
       </c>
@@ -6165,7 +6164,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>355</v>
@@ -6177,7 +6176,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>314</v>
       </c>
@@ -6200,7 +6199,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>355</v>
@@ -6212,7 +6211,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>315</v>
       </c>
@@ -6288,13 +6287,13 @@
         <v>457</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>317</v>
       </c>
@@ -6323,7 +6322,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>318</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>355</v>
@@ -6367,7 +6366,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>319</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>355</v>
@@ -6408,7 +6407,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>320</v>
       </c>
@@ -6434,7 +6433,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>355</v>
@@ -6452,7 +6451,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>321</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>355</v>
@@ -6520,10 +6519,10 @@
         <v>445</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>323</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>355</v>
@@ -6558,7 +6557,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>324</v>
       </c>
@@ -6582,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>355</v>
@@ -6594,10 +6593,10 @@
         <v>445</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>325</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>326</v>
       </c>
@@ -6643,7 +6642,7 @@
         <v>194</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>355</v>
@@ -6655,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>356</v>
@@ -6667,7 +6666,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>327</v>
       </c>
@@ -6690,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>355</v>
@@ -6702,10 +6701,10 @@
         <v>445</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>328</v>
       </c>
@@ -6722,7 +6721,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>355</v>
@@ -6746,7 +6745,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>329</v>
       </c>
@@ -6774,7 +6773,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>330</v>
       </c>
@@ -6799,7 +6798,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>331</v>
       </c>
@@ -6837,7 +6836,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>332</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>355</v>
@@ -6866,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>355</v>
@@ -6878,7 +6877,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>333</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>355</v>
@@ -6913,7 +6912,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>334</v>
       </c>
@@ -6936,7 +6935,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>356</v>
@@ -6948,7 +6947,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>335</v>
       </c>
@@ -6983,7 +6982,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>336</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>355</v>
@@ -7012,7 +7011,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>355</v>
@@ -7024,7 +7023,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>337</v>
       </c>
@@ -7041,7 +7040,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>355</v>
@@ -7053,7 +7052,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>355</v>
@@ -7068,7 +7067,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>338</v>
       </c>
@@ -7085,7 +7084,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>355</v>
@@ -7097,7 +7096,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>355</v>
@@ -7109,7 +7108,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>339</v>
       </c>
@@ -7144,7 +7143,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>340</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>355</v>
@@ -7179,7 +7178,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>341</v>
       </c>
@@ -7211,7 +7210,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>342</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>355</v>
@@ -7240,7 +7239,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>355</v>
@@ -7252,7 +7251,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>343</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>355</v>
@@ -7281,7 +7280,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>355</v>
@@ -7293,7 +7292,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>344</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>443</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>355</v>
@@ -7325,7 +7324,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>355</v>
@@ -7340,7 +7339,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>345</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>346</v>
       </c>
@@ -7397,7 +7396,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>355</v>
@@ -7418,7 +7417,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>347</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>206</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>355</v>
@@ -7450,7 +7449,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>355</v>
@@ -7462,7 +7461,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>348</v>
       </c>
@@ -7479,7 +7478,7 @@
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>355</v>
@@ -7500,7 +7499,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>349</v>
       </c>
@@ -7535,7 +7534,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>350</v>
       </c>
@@ -7602,10 +7601,10 @@
         <v>445</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>352</v>
       </c>
@@ -7619,7 +7618,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>355</v>
@@ -7631,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>355</v>
@@ -7643,7 +7642,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>353</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>362</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>195</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>355</v>
@@ -7716,7 +7715,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>393</v>
       </c>
@@ -7751,7 +7750,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>394</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>395</v>
       </c>
@@ -7815,7 +7814,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>403</v>
       </c>
@@ -7850,7 +7849,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>459</v>
       </c>
@@ -7882,7 +7881,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>407</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>412</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>355</v>
@@ -7917,7 +7916,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>447</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>461</v>
       </c>
@@ -7981,7 +7980,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>462</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>463</v>
       </c>
@@ -8077,10 +8076,10 @@
         <v>446</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>469</v>
       </c>
@@ -8109,21 +8108,21 @@
         <v>446</v>
       </c>
     </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>355</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>355</v>
@@ -8135,18 +8134,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V156" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="7"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V156" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N146">
     <sortCondition ref="E2:E146"/>
     <sortCondition ref="I2:I146"/>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65414AEC-73AF-490C-AD25-6BD87D6319DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D3AE22-679B-4B57-8D62-084CE6FFA9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1753,12 +1753,6 @@
     <t>//node[(@lemma="hij" or @lemma="ie")  and @pt="vnw"]</t>
   </si>
   <si>
-    <t>//node[(@pt="ww" and @rel="hd" and 
-           (@lemma="hebben" or @lemma="worden" or @lemma="zijn") and
-       parent::node[node[@rel="vc" and ((@cat="ppart" and node[@rel="hd"]) or (@pt="ww" and @wvorm="vd"))]
-       ]) or %robusthwwvd%]</t>
-  </si>
-  <si>
     <t>stars</t>
   </si>
   <si>
@@ -1906,6 +1900,9 @@
   </si>
   <si>
     <t>//node[(@cat="np" and node[@rel="det"] and node[@rel="mod" and @pt="bw" and (not(@special) or @special!="er")] and count(node)=3) ]</t>
+  </si>
+  <si>
+    <t>//node[%Tarsp_Hwwvd%]</t>
   </si>
 </sst>
 </file>
@@ -2326,11 +2323,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomRight" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2394,22 +2391,22 @@
         <v>444</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2435,7 +2432,7 @@
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>355</v>
@@ -2447,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>355</v>
@@ -2541,7 +2538,7 @@
         <v>445</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2634,7 +2631,7 @@
         <v>194</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>355</v>
@@ -2760,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>355</v>
@@ -2824,7 +2821,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>355</v>
@@ -3072,7 +3069,7 @@
         <v>392</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>355</v>
@@ -3084,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>355</v>
@@ -3151,7 +3148,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>355</v>
@@ -3215,7 +3212,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>355</v>
@@ -3259,7 +3256,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>355</v>
@@ -3271,7 +3268,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>355</v>
@@ -3449,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>355</v>
@@ -3604,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>355</v>
@@ -3773,7 +3770,7 @@
         <v>211</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>355</v>
@@ -3797,7 +3794,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>252</v>
       </c>
@@ -3814,7 +3811,7 @@
         <v>212</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>355</v>
@@ -3826,7 +3823,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>355</v>
@@ -3852,7 +3849,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>355</v>
@@ -3984,7 +3981,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>355</v>
@@ -4089,7 +4086,7 @@
         <v>204</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>355</v>
@@ -4273,7 +4270,7 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>355</v>
@@ -4463,7 +4460,7 @@
         <v>445</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
@@ -4518,7 +4515,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>355</v>
@@ -4559,7 +4556,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>355</v>
@@ -4621,7 +4618,7 @@
         <v>445</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -4831,7 +4828,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>355</v>
@@ -4872,7 +4869,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>355</v>
@@ -4913,7 +4910,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>355</v>
@@ -4954,7 +4951,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>355</v>
@@ -4995,7 +4992,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>355</v>
@@ -5036,7 +5033,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>355</v>
@@ -5080,7 +5077,7 @@
         <v>535</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>355</v>
@@ -5121,7 +5118,7 @@
         <v>536</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>355</v>
@@ -5183,7 +5180,7 @@
         <v>445</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5218,7 +5215,7 @@
         <v>445</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -5279,7 +5276,7 @@
         <v>537</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>355</v>
@@ -5323,7 +5320,7 @@
         <v>538</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>355</v>
@@ -5437,7 +5434,7 @@
         <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5446,7 +5443,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>355</v>
@@ -5484,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>355</v>
@@ -5560,7 +5557,7 @@
         <v>445</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -5685,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>355</v>
@@ -5889,10 +5886,10 @@
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>355</v>
@@ -5904,7 +5901,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>355</v>
@@ -5936,7 +5933,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>355</v>
@@ -6059,7 +6056,7 @@
         <v>445</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6088,7 +6085,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>355</v>
@@ -6287,7 +6284,7 @@
         <v>457</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>168</v>
@@ -6519,7 +6516,7 @@
         <v>445</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -6642,7 +6639,7 @@
         <v>194</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>355</v>
@@ -6689,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>355</v>
@@ -6721,7 +6718,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>355</v>
@@ -6853,7 +6850,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>355</v>
@@ -6900,7 +6897,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>355</v>
@@ -6999,7 +6996,7 @@
         <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>355</v>
@@ -7040,7 +7037,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>355</v>
@@ -7084,7 +7081,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>355</v>
@@ -7227,7 +7224,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>355</v>
@@ -7268,7 +7265,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>355</v>
@@ -7312,7 +7309,7 @@
         <v>443</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>355</v>
@@ -7437,7 +7434,7 @@
         <v>206</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>355</v>
@@ -7449,7 +7446,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>355</v>
@@ -7601,7 +7598,7 @@
         <v>445</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -7618,7 +7615,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>355</v>
@@ -7630,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>355</v>
@@ -8076,7 +8073,7 @@
         <v>446</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D3AE22-679B-4B57-8D62-084CE6FFA9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4E6453-76C7-42DF-8E67-F72DE273DC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="602">
   <si>
     <t>Item</t>
   </si>
@@ -1854,9 +1854,6 @@
   <si>
     <t>//node[@pt="ww" and @pvagr="met-t" and not(%Tarsp_Kop%) and
 not(%Tarsp_hww% or %hebbenwordenzijn%  ) ]</t>
-  </si>
-  <si>
-    <t>99</t>
   </si>
   <si>
     <t>//node[node[(@lemma="een" or @lemma="'n") and @pt="lid"] and node[@pt="n" and @rel="hd"] and count(node)=2 ]</t>
@@ -2323,11 +2320,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K40" sqref="K40"/>
+      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2757,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>355</v>
@@ -3081,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>355</v>
@@ -3148,7 +3145,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>355</v>
@@ -3268,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>355</v>
@@ -3446,7 +3443,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>355</v>
@@ -3601,7 +3598,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>355</v>
@@ -3823,7 +3820,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>355</v>
@@ -4270,7 +4267,7 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>355</v>
@@ -5434,7 +5431,7 @@
         <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>587</v>
+        <v>355</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5682,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>355</v>
@@ -5886,7 +5883,7 @@
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>573</v>
@@ -6085,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>355</v>
@@ -6686,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>355</v>
@@ -6897,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>355</v>
@@ -7446,7 +7443,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>355</v>
@@ -7627,7 +7624,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>355</v>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4E6453-76C7-42DF-8E67-F72DE273DC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9F66EC-A1B1-4CDF-9CFF-F497A0FF8285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1893,13 +1893,13 @@
     <t>//node[@pt="n" and %realwordnode% and @lemma!="kijk"]/ancestor::node[@cat="top" and  count(.//node[%realwordnode%])=1]</t>
   </si>
   <si>
-    <t>//node[@pt="ww" and contains(@lemma,"_") and @rel ="hd" and parent::node[node[@rel="svp" and not(%svpofhww%)]]]</t>
-  </si>
-  <si>
     <t>//node[(@cat="np" and node[@rel="det"] and node[@rel="mod" and @pt="bw" and (not(@special) or @special!="er")] and count(node)=3) ]</t>
   </si>
   <si>
     <t>//node[%Tarsp_Hwwvd%]</t>
+  </si>
+  <si>
+    <t>//node[@rel="svp" and @pt and not(%svpofhww%) and parent::node[node[@pt="ww" and contains(@lemma,"_") and @rel ="hd"]]]</t>
   </si>
 </sst>
 </file>
@@ -2320,11 +2320,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F104" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomRight" activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3145,7 +3145,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>355</v>
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>355</v>
@@ -6894,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>355</v>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9F66EC-A1B1-4CDF-9CFF-F497A0FF8285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61361DD3-5141-4E3E-9B24-962DD66E22F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="602">
   <si>
     <t>Item</t>
   </si>
@@ -535,9 +535,6 @@
   </si>
   <si>
     <t>//node[@lemma="ik" ]</t>
-  </si>
-  <si>
-    <t>//node[@pt = "n" and @getal="mv" ]</t>
   </si>
   <si>
     <t>//node[@pt="ww" and @wvorm="vd"]</t>
@@ -1862,9 +1859,6 @@
     <t>//node[%Tarsp_BX%]</t>
   </si>
   <si>
-    <t>//node[@pt="n" and @graad="dim" and not(%nodimlemma%)]</t>
-  </si>
-  <si>
     <t>WVC</t>
   </si>
   <si>
@@ -1900,6 +1894,12 @@
   </si>
   <si>
     <t>//node[@rel="svp" and @pt and not(%svpofhww%) and parent::node[node[@pt="ww" and contains(@lemma,"_") and @rel ="hd"]]]</t>
+  </si>
+  <si>
+    <t>tarsp_verkl</t>
+  </si>
+  <si>
+    <t>tarsp_mvzn</t>
   </si>
 </sst>
 </file>
@@ -2320,11 +2320,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K121" sqref="K121"/>
+      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2346,7 +2346,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -2355,19 +2355,19 @@
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -2379,31 +2379,31 @@
         <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -2420,19 +2420,19 @@
         <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I2" s="2">
         <v>60</v>
@@ -2441,24 +2441,24 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -2467,13 +2467,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I3" s="2">
         <v>56</v>
@@ -2482,24 +2482,24 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -2508,16 +2508,16 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>64</v>
@@ -2526,33 +2526,33 @@
         <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>122</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I5" s="2">
         <v>77</v>
@@ -2561,36 +2561,36 @@
         <v>6</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I6" s="2">
         <v>79</v>
@@ -2599,39 +2599,39 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I7" s="2">
         <v>42</v>
@@ -2640,21 +2640,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>83</v>
@@ -2663,13 +2663,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I8" s="2">
         <v>70</v>
@@ -2678,21 +2678,21 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -2701,13 +2701,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I9" s="2">
         <v>57</v>
@@ -2716,36 +2716,36 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I10" s="2">
         <v>67</v>
@@ -2754,21 +2754,21 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>83</v>
@@ -2777,13 +2777,13 @@
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>99</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I11" s="2">
         <v>70</v>
@@ -2792,18 +2792,18 @@
         <v>4</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -2812,16 +2812,16 @@
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I12" s="2">
         <v>50</v>
@@ -2830,33 +2830,33 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I13" s="2">
         <v>71</v>
@@ -2865,21 +2865,21 @@
         <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>83</v>
@@ -2888,13 +2888,13 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I14" s="2">
         <v>70</v>
@@ -2903,33 +2903,33 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I15" s="2">
         <v>68</v>
@@ -2938,62 +2938,62 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I17" s="2">
         <v>75</v>
@@ -3002,18 +3002,18 @@
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -3022,16 +3022,16 @@
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>50</v>
@@ -3040,36 +3040,36 @@
         <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I19" s="2">
         <v>40</v>
@@ -3078,33 +3078,33 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>154</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>156</v>
@@ -3113,30 +3113,30 @@
         <v>6</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I21" s="2">
         <v>69</v>
@@ -3145,33 +3145,33 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I22" s="2">
         <v>66</v>
@@ -3180,21 +3180,21 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
@@ -3203,16 +3203,16 @@
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I23" s="2">
         <v>53</v>
@@ -3221,21 +3221,21 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -3244,19 +3244,19 @@
         <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>27</v>
@@ -3265,36 +3265,36 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>18</v>
@@ -3303,30 +3303,30 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I26" s="2">
         <v>66</v>
@@ -3335,36 +3335,36 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I27" s="2">
         <v>68</v>
@@ -3373,33 +3373,33 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I28" s="2">
         <v>71</v>
@@ -3408,33 +3408,33 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I29" s="2">
         <v>64</v>
@@ -3443,36 +3443,36 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I30" s="2">
         <v>77</v>
@@ -3481,36 +3481,36 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>136</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I31" s="2">
         <v>81</v>
@@ -3519,36 +3519,39 @@
         <v>6</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I32" s="2">
         <v>72</v>
@@ -3557,21 +3560,21 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>19</v>
@@ -3580,16 +3583,16 @@
         <v>66</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>69</v>
@@ -3598,33 +3601,33 @@
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>138</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I34" s="2">
         <v>82</v>
@@ -3633,33 +3636,33 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>131</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I35" s="2">
         <v>80</v>
@@ -3668,33 +3671,33 @@
         <v>4</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I36" s="2">
         <v>71</v>
@@ -3703,33 +3706,33 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I37" s="2">
         <v>80</v>
@@ -3738,80 +3741,80 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I38" s="2">
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I39" s="2">
         <v>69</v>
@@ -3820,36 +3823,36 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>146</v>
@@ -3858,36 +3861,36 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>127</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I41" s="2">
         <v>79</v>
@@ -3899,18 +3902,18 @@
         <v>165</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -3919,16 +3922,16 @@
         <v>66</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I42" s="2">
         <v>59</v>
@@ -3937,13 +3940,13 @@
         <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>161</v>
@@ -3951,7 +3954,7 @@
     </row>
     <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>19</v>
@@ -3960,16 +3963,16 @@
         <v>20</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
@@ -3978,36 +3981,36 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>128</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I44" s="2">
         <v>79</v>
@@ -4016,33 +4019,33 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I45" s="2">
         <v>82</v>
@@ -4051,21 +4054,21 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>19</v>
@@ -4074,19 +4077,19 @@
         <v>20</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>29</v>
@@ -4095,33 +4098,33 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I47" s="2">
         <v>77</v>
@@ -4130,53 +4133,53 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>19</v>
@@ -4185,13 +4188,13 @@
         <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>22</v>
@@ -4200,30 +4203,30 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>135</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I50" s="2">
         <v>81</v>
@@ -4232,33 +4235,33 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>152</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I51" s="2">
         <v>87</v>
@@ -4267,36 +4270,36 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>144</v>
@@ -4305,33 +4308,33 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>166</v>
+        <v>601</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I53" s="2">
         <v>73</v>
@@ -4340,21 +4343,21 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -4363,13 +4366,13 @@
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I54" s="2">
         <v>56</v>
@@ -4378,21 +4381,21 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>19</v>
@@ -4401,13 +4404,13 @@
         <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I55" s="2">
         <v>54</v>
@@ -4416,30 +4419,30 @@
         <v>6</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I56" s="2">
         <v>74</v>
@@ -4448,33 +4451,33 @@
         <v>7</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I57" s="2">
         <v>41</v>
@@ -4483,21 +4486,21 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>19</v>
@@ -4506,16 +4509,16 @@
         <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I58" s="2">
         <v>45</v>
@@ -4524,21 +4527,21 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>19</v>
@@ -4547,16 +4550,16 @@
         <v>20</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I59" s="2">
         <v>51</v>
@@ -4565,21 +4568,21 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -4588,16 +4591,16 @@
         <v>20</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I60" s="2">
         <v>58</v>
@@ -4606,21 +4609,21 @@
         <v>7</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>19</v>
@@ -4629,13 +4632,13 @@
         <v>20</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>57</v>
@@ -4644,21 +4647,21 @@
         <v>6</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>19</v>
@@ -4667,13 +4670,13 @@
         <v>20</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I62" s="2">
         <v>55</v>
@@ -4682,21 +4685,21 @@
         <v>6</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>19</v>
@@ -4705,13 +4708,13 @@
         <v>20</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>53</v>
@@ -4720,33 +4723,33 @@
         <v>6</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I64" s="2">
         <v>75</v>
@@ -4755,21 +4758,21 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>19</v>
@@ -4778,16 +4781,16 @@
         <v>20</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I65" s="2">
         <v>46</v>
@@ -4796,21 +4799,21 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -4819,16 +4822,16 @@
         <v>20</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I66" s="2">
         <v>46</v>
@@ -4837,21 +4840,21 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>19</v>
@@ -4860,16 +4863,16 @@
         <v>20</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I67" s="2">
         <v>49</v>
@@ -4878,21 +4881,21 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>19</v>
@@ -4901,16 +4904,16 @@
         <v>20</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I68" s="2">
         <v>52</v>
@@ -4919,21 +4922,21 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>19</v>
@@ -4942,16 +4945,16 @@
         <v>20</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I69" s="2">
         <v>52</v>
@@ -4960,21 +4963,21 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>19</v>
@@ -4983,16 +4986,16 @@
         <v>20</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I70" s="2">
         <v>48</v>
@@ -5001,21 +5004,21 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>19</v>
@@ -5024,16 +5027,16 @@
         <v>20</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I71" s="2">
         <v>53</v>
@@ -5042,21 +5045,21 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -5065,19 +5068,19 @@
         <v>20</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I72" s="2">
         <v>48</v>
@@ -5086,18 +5089,18 @@
         <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>19</v>
@@ -5106,19 +5109,19 @@
         <v>20</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I73" s="2">
         <v>51</v>
@@ -5127,21 +5130,21 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>19</v>
@@ -5150,16 +5153,16 @@
         <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I74" s="2">
         <v>58</v>
@@ -5168,33 +5171,33 @@
         <v>7</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I75" s="2">
         <v>74</v>
@@ -5203,36 +5206,36 @@
         <v>7</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I76" s="2">
         <v>78</v>
@@ -5241,21 +5244,21 @@
         <v>6</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>19</v>
@@ -5264,19 +5267,19 @@
         <v>20</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I77" s="2">
         <v>52</v>
@@ -5285,21 +5288,21 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>19</v>
@@ -5308,19 +5311,19 @@
         <v>20</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I78" s="2">
         <v>53</v>
@@ -5329,36 +5332,36 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I79" s="2">
         <v>82</v>
@@ -5367,33 +5370,33 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>151</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I80" s="2">
         <v>86</v>
@@ -5402,16 +5405,16 @@
         <v>4</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>164</v>
@@ -5419,19 +5422,19 @@
     </row>
     <row r="81" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5440,36 +5443,36 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I82" s="2">
         <v>86</v>
@@ -5478,47 +5481,47 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="L83" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>19</v>
@@ -5527,13 +5530,13 @@
         <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I84" s="2">
         <v>57</v>
@@ -5542,36 +5545,36 @@
         <v>7</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I85" s="2">
         <v>42</v>
@@ -5580,30 +5583,30 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>15</v>
@@ -5612,30 +5615,30 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I87" s="2">
         <v>43</v>
@@ -5644,33 +5647,33 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I88" s="2">
         <v>37</v>
@@ -5679,33 +5682,33 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>3</v>
@@ -5714,36 +5717,36 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>4</v>
@@ -5752,82 +5755,82 @@
         <v>1</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>160</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>19</v>
@@ -5836,16 +5839,16 @@
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>61</v>
@@ -5854,21 +5857,21 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>19</v>
@@ -5877,19 +5880,19 @@
         <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I94" s="2">
         <v>46</v>
@@ -5898,16 +5901,16 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>159</v>
@@ -5915,7 +5918,7 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>19</v>
@@ -5924,16 +5927,16 @@
         <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I95" s="2">
         <v>52</v>
@@ -5942,33 +5945,33 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I96" s="2">
         <v>75</v>
@@ -5977,65 +5980,65 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>155</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I98" s="2">
         <v>88</v>
@@ -6044,36 +6047,36 @@
         <v>7</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I99" s="2">
         <v>83</v>
@@ -6082,39 +6085,39 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I100" s="2">
         <v>87</v>
@@ -6123,33 +6126,33 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>102</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I101" s="2">
         <v>71</v>
@@ -6158,33 +6161,33 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I102" s="2">
         <v>80</v>
@@ -6193,36 +6196,36 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>148</v>
@@ -6231,36 +6234,36 @@
         <v>3</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I104" s="2">
         <v>88</v>
@@ -6269,56 +6272,56 @@
         <v>7</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U104" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K105" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="U105" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="U105" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>19</v>
@@ -6327,16 +6330,16 @@
         <v>66</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I106" s="2">
         <v>60</v>
@@ -6345,16 +6348,16 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U106" s="2" t="s">
         <v>162</v>
@@ -6362,7 +6365,7 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>19</v>
@@ -6371,13 +6374,13 @@
         <v>66</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>74</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I107" s="2">
         <v>61</v>
@@ -6386,24 +6389,24 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>19</v>
@@ -6412,13 +6415,13 @@
         <v>66</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>76</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>77</v>
@@ -6427,19 +6430,19 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U108" s="2" t="s">
         <v>162</v>
@@ -6447,19 +6450,19 @@
     </row>
     <row r="109" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>107</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I109" s="2">
         <v>72</v>
@@ -6468,33 +6471,33 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>112</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I110" s="2">
         <v>74</v>
@@ -6504,33 +6507,33 @@
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>90</v>
@@ -6539,34 +6542,34 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I112" s="2">
         <v>65</v>
@@ -6575,24 +6578,24 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>83</v>
@@ -6601,13 +6604,13 @@
         <v>30</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I113" s="2">
         <v>70</v>
@@ -6616,30 +6619,30 @@
         <v>4</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>8</v>
@@ -6648,33 +6651,33 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>12</v>
@@ -6683,24 +6686,24 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>19</v>
@@ -6709,16 +6712,16 @@
         <v>78</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I116" s="2">
         <v>62</v>
@@ -6727,86 +6730,86 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>123</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>124</v>
@@ -6815,24 +6818,24 @@
         <v>6</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U119" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>19</v>
@@ -6841,16 +6844,16 @@
         <v>20</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I120" s="2">
         <v>51</v>
@@ -6859,33 +6862,33 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I121" s="2">
         <v>68</v>
@@ -6894,33 +6897,33 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>116</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I122" s="2">
         <v>75</v>
@@ -6929,33 +6932,33 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>134</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I123" s="2">
         <v>81</v>
@@ -6964,21 +6967,21 @@
         <v>5</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>19</v>
@@ -6987,16 +6990,16 @@
         <v>66</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I124" s="2">
         <v>60</v>
@@ -7005,21 +7008,21 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>19</v>
@@ -7028,16 +7031,16 @@
         <v>66</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I125" s="2">
         <v>61</v>
@@ -7046,24 +7049,24 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>19</v>
@@ -7072,16 +7075,16 @@
         <v>66</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I126" s="2">
         <v>61</v>
@@ -7090,68 +7093,68 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E127" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="U127" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="U127" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>109</v>
@@ -7160,33 +7163,33 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I129" s="2">
         <v>73</v>
@@ -7195,18 +7198,18 @@
         <v>6</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>19</v>
@@ -7215,16 +7218,16 @@
         <v>78</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I130" s="2">
         <v>63</v>
@@ -7233,21 +7236,21 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>19</v>
@@ -7256,16 +7259,16 @@
         <v>78</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I131" s="2">
         <v>63</v>
@@ -7274,21 +7277,21 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>19</v>
@@ -7297,19 +7300,19 @@
         <v>78</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I132" s="2">
         <v>63</v>
@@ -7318,40 +7321,40 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>105</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I133" s="2">
         <v>72</v>
@@ -7360,21 +7363,21 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>19</v>
@@ -7383,17 +7386,17 @@
         <v>20</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>34</v>
@@ -7402,18 +7405,18 @@
         <v>3</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>19</v>
@@ -7422,19 +7425,19 @@
         <v>20</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>37</v>
@@ -7443,21 +7446,21 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>19</v>
@@ -7466,16 +7469,16 @@
         <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I136" s="2">
         <v>51</v>
@@ -7484,30 +7487,30 @@
         <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>133</v>
@@ -7516,21 +7519,21 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>125</v>
@@ -7539,42 +7542,42 @@
         <v>30</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I139" s="2">
         <v>82</v>
@@ -7583,39 +7586,39 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I140" s="2">
         <v>40</v>
@@ -7624,33 +7627,33 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I141" s="2">
         <v>69</v>
@@ -7659,473 +7662,473 @@
         <v>4</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U141" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I142" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="U142" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="U142" s="12" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="H143" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U143" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I144" s="2" t="s">
+      <c r="K144" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="U144" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="U144" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I145" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="U145" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="U145" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U146" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="H147" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="L148" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I149" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="L149" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U149" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="K154" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61361DD3-5141-4E3E-9B24-962DD66E22F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A8312E-AA2A-4599-8CFD-DDD425E043F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1881,9 +1881,6 @@
     <t>//node[@pt="ww" and not(%Tarsp_kijkVU%) and ancestor::node[@cat="top" and count(.//node[%realwordnode%]) = 1 ]]</t>
   </si>
   <si>
-    <t>//node[(@pt='adj' or @pt='bw' or @pt='vz') and @lemma!="kijk" and ancestor::node[@cat="top" and  count(.//node[%realwordnode%])=1]]</t>
-  </si>
-  <si>
     <t>//node[@pt="n" and %realwordnode% and @lemma!="kijk"]/ancestor::node[@cat="top" and  count(.//node[%realwordnode%])=1]</t>
   </si>
   <si>
@@ -1900,6 +1897,9 @@
   </si>
   <si>
     <t>tarsp_mvzn</t>
+  </si>
+  <si>
+    <t>//node[not(%bvbvraagwoord%) and (@pt='adj' or @pt='bw' or @pt='vz' or %Rpronounx%) and not(parent::node[@cat="sv1"]) and @lemma!="kijk" and ancestor::node[@cat="top" and  count(.//node[%realwordnode%])=1]]</t>
   </si>
 </sst>
 </file>
@@ -2320,11 +2320,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3052,7 +3052,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>231</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>354</v>
@@ -3145,7 +3145,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>354</v>
@@ -3823,7 +3823,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>354</v>
@@ -4308,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>354</v>
@@ -6085,7 +6085,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>354</v>
@@ -6897,7 +6897,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>354</v>
@@ -7627,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>354</v>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A8312E-AA2A-4599-8CFD-DDD425E043F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A129E9F-434C-45A0-8031-5F608851A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="603">
   <si>
     <t>Item</t>
   </si>
@@ -1900,6 +1900,9 @@
   </si>
   <si>
     <t>//node[not(%bvbvraagwoord%) and (@pt='adj' or @pt='bw' or @pt='vz' or %Rpronounx%) and not(parent::node[@cat="sv1"]) and @lemma!="kijk" and ancestor::node[@cat="top" and  count(.//node[%realwordnode%])=1]]</t>
+  </si>
+  <si>
+    <t>tarsp2005,tarsp2017</t>
   </si>
 </sst>
 </file>
@@ -2320,11 +2323,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="R157" sqref="R157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3612,6 +3615,9 @@
       <c r="N33" s="2" t="s">
         <v>444</v>
       </c>
+      <c r="R33" s="2" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A129E9F-434C-45A0-8031-5F608851A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB364E95-FF1E-457B-9629-64E956125833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2323,11 +2323,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="P31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="R157" sqref="R157"/>
+      <selection pane="bottomRight" activeCell="R163" sqref="R163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB364E95-FF1E-457B-9629-64E956125833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BC5641-C9D1-46D4-B7F2-0609150B9B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="604">
   <si>
     <t>Item</t>
   </si>
@@ -1903,6 +1903,9 @@
   </si>
   <si>
     <t>tarsp2005,tarsp2017</t>
+  </si>
+  <si>
+    <t>WOndX</t>
   </si>
 </sst>
 </file>
@@ -2024,9 +2027,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2064,7 +2067,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2170,7 +2173,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2312,7 +2315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2323,11 +2326,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="R163" sqref="R163"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7001,6 +7004,9 @@
       <c r="E124" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="F124" s="2" t="s">
+        <v>603</v>
+      </c>
       <c r="G124" s="2" t="s">
         <v>575</v>
       </c>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BC5641-C9D1-46D4-B7F2-0609150B9B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409BD3A1-5ECE-492E-8D4F-FDAC46CF52D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="609">
   <si>
     <t>Item</t>
   </si>
@@ -1565,12 +1565,6 @@
   </si>
   <si>
     <t>//node[%Tarsp_HwwZ%]</t>
-  </si>
-  <si>
-    <t>//node[node[@rel="hd" and @pt="vz"] and 
-       node[@rel="obj1" and 
-            ( (@pt="vz" or @pt="bw") or 
-              (%Rpronoun% and @begin=../node[@rel="hd"]/@end)) ]]</t>
   </si>
   <si>
     <t>vu nee/ja, vu ja/nee,V.U. Ja/nee, nee, ja</t>
@@ -1906,6 +1900,27 @@
   </si>
   <si>
     <t>WOndX</t>
+  </si>
+  <si>
+    <t>//node[node[@rel="hd" and @pt="vz"] and 
+       node[@rel="obj1" and 
+            ( (@pt="vz" or @pt="bw") or 
+              (%Rpronoun% and @begin&gt;=../node[@rel="hd"]/@end)) ]]</t>
+  </si>
+  <si>
+    <t>T166</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>//node[ @lemma="niets" or @lemma="niks" or @lemma="zelf"]</t>
+  </si>
+  <si>
+    <t>tarsp2017,auris</t>
+  </si>
+  <si>
+    <t>taalmaat is veranderd in 2017; vgl T085</t>
   </si>
 </sst>
 </file>
@@ -2326,11 +2341,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N141" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="U157" sqref="U157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2394,22 +2409,22 @@
         <v>443</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2429,13 +2444,13 @@
         <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>354</v>
@@ -2447,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>354</v>
@@ -2541,7 +2556,7 @@
         <v>444</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2605,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>354</v>
@@ -2634,7 +2649,7 @@
         <v>193</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>354</v>
@@ -2646,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>355</v>
@@ -2760,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>354</v>
@@ -2824,7 +2839,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>354</v>
@@ -2836,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>354</v>
@@ -2944,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>354</v>
@@ -3072,7 +3087,7 @@
         <v>391</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>354</v>
@@ -3084,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>354</v>
@@ -3151,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>354</v>
@@ -3215,7 +3230,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>354</v>
@@ -3227,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>354</v>
@@ -3259,7 +3274,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>354</v>
@@ -3271,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>354</v>
@@ -3283,7 +3298,7 @@
         <v>444</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -3341,7 +3356,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>354</v>
@@ -3449,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>354</v>
@@ -3487,7 +3502,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>354</v>
@@ -3537,7 +3552,7 @@
         <v>444</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
@@ -3607,7 +3622,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>354</v>
@@ -3619,7 +3634,7 @@
         <v>444</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -3645,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>354</v>
@@ -3750,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>354</v>
@@ -3779,7 +3794,7 @@
         <v>210</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>354</v>
@@ -3791,7 +3806,7 @@
         <v>364</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>354</v>
@@ -3820,7 +3835,7 @@
         <v>211</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>354</v>
@@ -3832,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>354</v>
@@ -3858,7 +3873,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>354</v>
@@ -3990,7 +4005,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>354</v>
@@ -4028,7 +4043,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>354</v>
@@ -4095,7 +4110,7 @@
         <v>203</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>354</v>
@@ -4171,7 +4186,7 @@
         <v>355</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>355</v>
@@ -4279,7 +4294,7 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>354</v>
@@ -4317,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>354</v>
@@ -4469,7 +4484,7 @@
         <v>444</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
@@ -4495,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>355</v>
@@ -4524,7 +4539,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>354</v>
@@ -4536,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>354</v>
@@ -4565,7 +4580,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>354</v>
@@ -4577,7 +4592,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>354</v>
@@ -4627,7 +4642,7 @@
         <v>444</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -4808,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>354</v>
@@ -4837,7 +4852,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>354</v>
@@ -4849,7 +4864,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>354</v>
@@ -4878,7 +4893,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>354</v>
@@ -4890,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>354</v>
@@ -4919,7 +4934,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>354</v>
@@ -4960,7 +4975,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>354</v>
@@ -5001,7 +5016,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>354</v>
@@ -5013,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>354</v>
@@ -5042,7 +5057,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>354</v>
@@ -5054,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>354</v>
@@ -5083,10 +5098,10 @@
         <v>407</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>354</v>
@@ -5124,10 +5139,10 @@
         <v>188</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>354</v>
@@ -5139,7 +5154,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>354</v>
@@ -5189,7 +5204,7 @@
         <v>444</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5224,7 +5239,7 @@
         <v>444</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -5282,10 +5297,10 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>354</v>
@@ -5297,7 +5312,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>354</v>
@@ -5326,10 +5341,10 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>354</v>
@@ -5341,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>354</v>
@@ -5367,7 +5382,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>354</v>
@@ -5389,6 +5404,9 @@
       </c>
       <c r="N79" s="2" t="s">
         <v>444</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
@@ -5452,7 +5470,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>354</v>
@@ -5490,7 +5508,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>354</v>
@@ -5566,7 +5584,7 @@
         <v>444</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -5679,7 +5697,7 @@
         <v>383</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>354</v>
@@ -5691,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>354</v>
@@ -5787,7 +5805,7 @@
         <v>384</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>354</v>
@@ -5825,7 +5843,7 @@
         <v>354</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>355</v>
@@ -5866,7 +5884,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>354</v>
@@ -5895,10 +5913,10 @@
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>354</v>
@@ -5910,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>354</v>
@@ -5942,7 +5960,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>354</v>
@@ -5954,7 +5972,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>354</v>
@@ -6021,7 +6039,7 @@
         <v>453</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>354</v>
@@ -6065,7 +6083,7 @@
         <v>444</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6094,7 +6112,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>354</v>
@@ -6170,7 +6188,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>354</v>
@@ -6205,7 +6223,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>354</v>
@@ -6293,7 +6311,7 @@
         <v>456</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>167</v>
@@ -6357,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>354</v>
@@ -6398,7 +6416,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>354</v>
@@ -6439,7 +6457,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>354</v>
@@ -6480,7 +6498,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>499</v>
+        <v>603</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>354</v>
@@ -6525,7 +6543,7 @@
         <v>444</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -6551,7 +6569,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>354</v>
@@ -6587,7 +6605,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>354</v>
@@ -6648,7 +6666,7 @@
         <v>193</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>354</v>
@@ -6660,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>355</v>
@@ -6695,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>354</v>
@@ -6727,7 +6745,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>354</v>
@@ -6859,7 +6877,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>354</v>
@@ -6871,7 +6889,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>354</v>
@@ -6906,7 +6924,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>354</v>
@@ -7005,10 +7023,10 @@
         <v>71</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>354</v>
@@ -7020,7 +7038,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>354</v>
@@ -7049,7 +7067,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>354</v>
@@ -7061,7 +7079,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>354</v>
@@ -7093,7 +7111,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>354</v>
@@ -7105,7 +7123,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>354</v>
@@ -7175,7 +7193,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>354</v>
@@ -7236,7 +7254,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>354</v>
@@ -7248,7 +7266,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>354</v>
@@ -7277,7 +7295,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>354</v>
@@ -7289,7 +7307,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>354</v>
@@ -7321,7 +7339,7 @@
         <v>442</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>354</v>
@@ -7333,7 +7351,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>354</v>
@@ -7405,7 +7423,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>354</v>
@@ -7446,7 +7464,7 @@
         <v>205</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>354</v>
@@ -7458,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>354</v>
@@ -7487,7 +7505,7 @@
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>354</v>
@@ -7610,7 +7628,7 @@
         <v>444</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -7627,7 +7645,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>354</v>
@@ -7639,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>354</v>
@@ -7700,7 +7718,7 @@
         <v>194</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>354</v>
@@ -7904,7 +7922,7 @@
         <v>411</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>354</v>
@@ -8085,7 +8103,7 @@
         <v>445</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
@@ -8144,8 +8162,48 @@
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="K156" s="3"/>
-      <c r="L156" s="3"/>
+      <c r="A156" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="J156" s="2">
+        <v>6</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="R156" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="U156" s="2" t="s">
+        <v>608</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V156" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409BD3A1-5ECE-492E-8D4F-FDAC46CF52D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1097ED3D-B6FA-4B19-B294-55EC241B6887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1847,9 +1847,6 @@
 not(%Tarsp_hww% or %hebbenwordenzijn%  ) ]</t>
   </si>
   <si>
-    <t>//node[node[(@lemma="een" or @lemma="'n") and @pt="lid"] and node[@pt="n" and @rel="hd"] and count(node)=2 ]</t>
-  </si>
-  <si>
     <t>//node[%Tarsp_BX%]</t>
   </si>
   <si>
@@ -1921,6 +1918,9 @@
   </si>
   <si>
     <t>taalmaat is veranderd in 2017; vgl T085</t>
+  </si>
+  <si>
+    <t>//node[node[(@lemma="een" or @lemma="'n") and @pt="lid"] and node[(@pt="n" or (@pt="adj" and @positie="nom")) and @rel="hd"] and count(node)=2 ]</t>
   </si>
 </sst>
 </file>
@@ -2341,11 +2341,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="U157" sqref="U157"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2775,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>354</v>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>354</v>
@@ -3166,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>354</v>
@@ -3286,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>354</v>
@@ -3464,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>354</v>
@@ -3622,7 +3622,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>354</v>
@@ -3634,7 +3634,7 @@
         <v>444</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -3847,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>354</v>
@@ -4294,7 +4294,7 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>354</v>
@@ -4332,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>354</v>
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>354</v>
@@ -5913,7 +5913,7 @@
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>571</v>
@@ -6112,7 +6112,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>354</v>
@@ -6498,7 +6498,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>354</v>
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>354</v>
@@ -6924,7 +6924,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>354</v>
@@ -7023,7 +7023,7 @@
         <v>71</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>574</v>
@@ -7476,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>354</v>
@@ -7657,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>354</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>125</v>
@@ -8181,28 +8181,28 @@
         <v>354</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J156" s="2">
         <v>6</v>
       </c>
       <c r="K156" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="R156" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="L156" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M156" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N156" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="R156" s="2" t="s">
+      <c r="U156" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="U156" s="2" t="s">
-        <v>608</v>
       </c>
     </row>
   </sheetData>
